--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADRIAN.BMGRT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\ATProgrammationSmartphone\2eme_Semestre\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E466888-6ACD-460C-A91F-D39A93FFBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AA923-16EF-47C2-B95C-341CBD239A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-100C]d\.\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-100C]d\.\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -847,7 +847,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,18 +918,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,8 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,6 +1102,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,7 +1400,7 @@
   <dimension ref="C3:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,187 +1415,187 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="3:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="3:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="124">
         <v>44588</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48">
+      <c r="G8" s="125"/>
+      <c r="H8" s="126">
         <v>44595</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48">
+      <c r="I8" s="125"/>
+      <c r="J8" s="126">
         <v>44602</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48">
+      <c r="K8" s="125"/>
+      <c r="L8" s="126">
         <v>44616</v>
       </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="46">
+      <c r="M8" s="127"/>
+      <c r="N8" s="124">
         <v>44623</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48">
+      <c r="O8" s="125"/>
+      <c r="P8" s="126">
         <v>44630</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48">
+      <c r="Q8" s="125"/>
+      <c r="R8" s="126">
         <v>44637</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="25"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="24"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="39"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="41"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="40"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="33"/>
+      <c r="S11" s="32"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="33"/>
+      <c r="S12" s="32"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="69"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
@@ -1613,11 +1613,11 @@
     </row>
     <row r="14" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="93"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
@@ -1635,33 +1635,33 @@
     </row>
     <row r="15" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="33"/>
+      <c r="S15" s="32"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="17" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="55" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="8"/>
@@ -1701,11 +1701,11 @@
     </row>
     <row r="18" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="67"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
@@ -1723,21 +1723,21 @@
     </row>
     <row r="19" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
       <c r="R19" s="15"/>
       <c r="S19" s="12"/>
       <c r="Z19" s="1"/>
@@ -1745,56 +1745,56 @@
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="55" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="55"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="50"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="30"/>
+      <c r="S20" s="29"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="31"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="30"/>
       <c r="S21" s="17"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="55" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="32"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1802,8 +1802,8 @@
       <c r="M22" s="6"/>
       <c r="N22" s="13"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="77"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="15"/>
       <c r="S22" s="12"/>
       <c r="Z22" s="1"/>
@@ -1811,29 +1811,29 @@
     </row>
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="33"/>
+      <c r="S23" s="32"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="55" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="5"/>
@@ -1844,78 +1844,78 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="27"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="94"/>
+      <c r="Q24" s="87"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="59"/>
+      <c r="S24" s="54"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
       <c r="R25" s="16"/>
-      <c r="S25" s="33"/>
+      <c r="S25" s="32"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="35"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="34"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -1979,446 +1979,446 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="60"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="124">
         <v>44588</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48">
+      <c r="F8" s="125"/>
+      <c r="G8" s="126">
         <v>44595</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48">
+      <c r="H8" s="125"/>
+      <c r="I8" s="126">
         <v>44602</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48">
+      <c r="J8" s="125"/>
+      <c r="K8" s="126">
         <v>44616</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="46">
+      <c r="L8" s="127"/>
+      <c r="M8" s="124">
         <v>44623</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48">
+      <c r="N8" s="125"/>
+      <c r="O8" s="126">
         <v>44630</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48">
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126">
         <v>44637</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="41"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="40"/>
     </row>
     <row r="11" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="102"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="95"/>
     </row>
     <row r="12" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="102"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="95"/>
     </row>
     <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="107"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="100"/>
     </row>
     <row r="14" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="107"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="100"/>
     </row>
     <row r="15" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="102"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="95"/>
     </row>
     <row r="16" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="54"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="49"/>
     </row>
     <row r="17" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="102"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="95"/>
     </row>
     <row r="18" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="102"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="95"/>
     </row>
     <row r="19" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="107"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="100"/>
     </row>
     <row r="20" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="102"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="95"/>
     </row>
     <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="102"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="95"/>
     </row>
     <row r="22" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="100"/>
     </row>
     <row r="23" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="102"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="95"/>
     </row>
     <row r="24" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="117"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="110"/>
     </row>
     <row r="25" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="102"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="95"/>
     </row>
     <row r="26" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="120"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="113"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2427,33 +2427,33 @@
     </row>
     <row r="27" spans="3:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="126"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\ATProgrammationSmartphone\2eme_Semestre\GameAdvice\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.frrrd3\Desktop\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AA923-16EF-47C2-B95C-341CBD239A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5AF2B-4452-4E79-8EBB-08CEE850866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,6 +1102,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,8 +1117,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,7 +1400,7 @@
   <dimension ref="C3:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,10 +1454,10 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
@@ -1466,40 +1466,40 @@
       <c r="E8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="126">
         <v>44588</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126">
+      <c r="G8" s="127"/>
+      <c r="H8" s="128">
         <v>44595</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126">
+      <c r="I8" s="127"/>
+      <c r="J8" s="128">
         <v>44602</v>
       </c>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126">
+      <c r="K8" s="127"/>
+      <c r="L8" s="128">
         <v>44616</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="124">
+      <c r="M8" s="129"/>
+      <c r="N8" s="126">
         <v>44623</v>
       </c>
-      <c r="O8" s="125"/>
-      <c r="P8" s="126">
+      <c r="O8" s="127"/>
+      <c r="P8" s="128">
         <v>44630</v>
       </c>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="126">
+      <c r="Q8" s="127"/>
+      <c r="R8" s="128">
         <v>44637</v>
       </c>
-      <c r="S8" s="127"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
@@ -1902,8 +1902,8 @@
       <c r="E27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
       <c r="H27" s="80"/>
       <c r="I27" s="80"/>
       <c r="J27" s="81"/>
@@ -2022,34 +2022,34 @@
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="126">
         <v>44588</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126">
+      <c r="F8" s="127"/>
+      <c r="G8" s="128">
         <v>44595</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126">
+      <c r="H8" s="127"/>
+      <c r="I8" s="128">
         <v>44602</v>
       </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126">
+      <c r="J8" s="127"/>
+      <c r="K8" s="128">
         <v>44616</v>
       </c>
-      <c r="L8" s="127"/>
-      <c r="M8" s="124">
+      <c r="L8" s="129"/>
+      <c r="M8" s="126">
         <v>44623</v>
       </c>
-      <c r="N8" s="125"/>
-      <c r="O8" s="126">
+      <c r="N8" s="127"/>
+      <c r="O8" s="128">
         <v>44630</v>
       </c>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126">
+      <c r="P8" s="127"/>
+      <c r="Q8" s="128">
         <v>44637</v>
       </c>
-      <c r="R8" s="127"/>
+      <c r="R8" s="129"/>
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.frrrd3\Desktop\GameAdvice\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5AF2B-4452-4E79-8EBB-08CEE850866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F0EA0-7DB8-4799-AD25-60E2BC778875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="315" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,7 +1011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,7 +1399,7 @@
   <dimension ref="C3:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,10 +1453,10 @@
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
@@ -1466,40 +1465,40 @@
       <c r="E8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="125">
         <v>44588</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128">
+      <c r="G8" s="126"/>
+      <c r="H8" s="127">
         <v>44595</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="128">
+      <c r="I8" s="126"/>
+      <c r="J8" s="127">
         <v>44602</v>
       </c>
-      <c r="K8" s="127"/>
-      <c r="L8" s="128">
+      <c r="K8" s="126"/>
+      <c r="L8" s="127">
         <v>44616</v>
       </c>
-      <c r="M8" s="129"/>
-      <c r="N8" s="126">
+      <c r="M8" s="128"/>
+      <c r="N8" s="125">
         <v>44623</v>
       </c>
-      <c r="O8" s="127"/>
-      <c r="P8" s="128">
+      <c r="O8" s="126"/>
+      <c r="P8" s="127">
         <v>44630</v>
       </c>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="128">
+      <c r="Q8" s="126"/>
+      <c r="R8" s="127">
         <v>44637</v>
       </c>
-      <c r="S8" s="129"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
@@ -1617,7 +1616,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="65"/>
-      <c r="G14" s="86"/>
+      <c r="G14" s="85"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
@@ -1686,8 +1685,8 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="8"/>
@@ -1815,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="83"/>
-      <c r="G23" s="84"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
       <c r="J23" s="51"/>
@@ -1847,7 +1846,7 @@
       <c r="N24" s="26"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="87"/>
+      <c r="Q24" s="86"/>
       <c r="R24" s="7"/>
       <c r="S24" s="54"/>
       <c r="Z24" s="1"/>
@@ -1877,23 +1876,23 @@
     </row>
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="90"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="92"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
@@ -1902,8 +1901,8 @@
       <c r="E27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="123"/>
       <c r="H27" s="80"/>
       <c r="I27" s="80"/>
       <c r="J27" s="81"/>
@@ -2022,34 +2021,34 @@
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="125">
         <v>44588</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128">
+      <c r="F8" s="126"/>
+      <c r="G8" s="127">
         <v>44595</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128">
+      <c r="H8" s="126"/>
+      <c r="I8" s="127">
         <v>44602</v>
       </c>
-      <c r="J8" s="127"/>
-      <c r="K8" s="128">
+      <c r="J8" s="126"/>
+      <c r="K8" s="127">
         <v>44616</v>
       </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="126">
+      <c r="L8" s="128"/>
+      <c r="M8" s="125">
         <v>44623</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="128">
+      <c r="N8" s="126"/>
+      <c r="O8" s="127">
         <v>44630</v>
       </c>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="128">
+      <c r="P8" s="126"/>
+      <c r="Q8" s="127">
         <v>44637</v>
       </c>
-      <c r="R8" s="129"/>
+      <c r="R8" s="128"/>
       <c r="S8" s="49"/>
       <c r="T8" s="49"/>
       <c r="U8" s="49"/>
@@ -2104,7 +2103,7 @@
       <c r="D11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="74"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2117,14 +2116,14 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="73"/>
-      <c r="R11" s="95"/>
+      <c r="R11" s="94"/>
     </row>
     <row r="12" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="74"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -2137,27 +2136,27 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="73"/>
-      <c r="R12" s="95"/>
+      <c r="R12" s="94"/>
     </row>
     <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="97"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
       <c r="K13" s="73"/>
       <c r="L13" s="75"/>
-      <c r="M13" s="98"/>
+      <c r="M13" s="97"/>
       <c r="N13" s="75"/>
       <c r="O13" s="75"/>
       <c r="P13" s="75"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="100"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="99"/>
     </row>
     <row r="14" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
@@ -2172,20 +2171,20 @@
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
       <c r="L14" s="75"/>
-      <c r="M14" s="98"/>
+      <c r="M14" s="97"/>
       <c r="N14" s="75"/>
       <c r="O14" s="75"/>
       <c r="P14" s="75"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="99"/>
     </row>
     <row r="15" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="120"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="73"/>
@@ -2197,7 +2196,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="73"/>
-      <c r="R15" s="95"/>
+      <c r="R15" s="94"/>
     </row>
     <row r="16" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
@@ -2205,7 +2204,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="102"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="73"/>
@@ -2217,7 +2216,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="73"/>
-      <c r="R16" s="95"/>
+      <c r="R16" s="94"/>
       <c r="S16" s="49"/>
     </row>
     <row r="17" spans="3:23" ht="21" x14ac:dyDescent="0.25">
@@ -2238,7 +2237,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="73"/>
-      <c r="R17" s="95"/>
+      <c r="R17" s="94"/>
     </row>
     <row r="18" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
@@ -2246,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="103"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="73"/>
@@ -2258,7 +2257,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="73"/>
-      <c r="R18" s="95"/>
+      <c r="R18" s="94"/>
     </row>
     <row r="19" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
@@ -2267,18 +2266,18 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="100"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="99"/>
     </row>
     <row r="20" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
@@ -2298,7 +2297,7 @@
       <c r="O20" s="75"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="73"/>
-      <c r="R20" s="95"/>
+      <c r="R20" s="94"/>
     </row>
     <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -2314,11 +2313,11 @@
       <c r="K21" s="73"/>
       <c r="L21" s="21"/>
       <c r="M21" s="74"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="108"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="95"/>
+      <c r="R21" s="94"/>
     </row>
     <row r="22" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
@@ -2327,26 +2326,26 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="108"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="21"/>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
       <c r="K22" s="73"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="98"/>
+      <c r="M22" s="97"/>
       <c r="N22" s="75"/>
       <c r="O22" s="21"/>
       <c r="P22" s="75"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="99"/>
     </row>
     <row r="23" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="102"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="73"/>
@@ -2358,7 +2357,7 @@
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="73"/>
-      <c r="R23" s="95"/>
+      <c r="R23" s="94"/>
     </row>
     <row r="24" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
@@ -2376,9 +2375,9 @@
       <c r="M24" s="74"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="104"/>
+      <c r="P24" s="103"/>
       <c r="Q24" s="73"/>
-      <c r="R24" s="110"/>
+      <c r="R24" s="109"/>
     </row>
     <row r="25" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
@@ -2398,27 +2397,27 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="73"/>
-      <c r="R25" s="95"/>
+      <c r="R25" s="94"/>
     </row>
     <row r="26" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="111"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="113"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="112"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2430,20 +2429,20 @@
       <c r="D27" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\ATProgrammationSmartphone\2eme_Semestre\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F0EA0-7DB8-4799-AD25-60E2BC778875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11009FCC-1D1A-45F8-A08E-147FE11C61ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="315" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -306,19 +306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -327,21 +314,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -414,34 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -486,31 +430,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -679,21 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -721,30 +626,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -786,59 +667,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -850,44 +806,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,226 +839,251 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,525 +1382,601 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="3:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="3:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="75">
         <v>44588</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127">
+      <c r="G8" s="76"/>
+      <c r="H8" s="77">
         <v>44595</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127">
+      <c r="I8" s="76"/>
+      <c r="J8" s="77">
         <v>44602</v>
       </c>
-      <c r="K8" s="126"/>
-      <c r="L8" s="127">
+      <c r="K8" s="76"/>
+      <c r="L8" s="77">
         <v>44616</v>
       </c>
-      <c r="M8" s="128"/>
-      <c r="N8" s="125">
+      <c r="M8" s="78"/>
+      <c r="N8" s="75">
         <v>44623</v>
       </c>
-      <c r="O8" s="126"/>
-      <c r="P8" s="127">
+      <c r="O8" s="76"/>
+      <c r="P8" s="77">
         <v>44630</v>
       </c>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="127">
+      <c r="Q8" s="76"/>
+      <c r="R8" s="77">
         <v>44637</v>
       </c>
-      <c r="S8" s="128"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="77">
+        <v>44644</v>
+      </c>
+      <c r="U8" s="78"/>
+      <c r="V8" s="77">
+        <v>44651</v>
+      </c>
+      <c r="W8" s="78"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="15"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="40"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="32"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="20"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="32"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="20"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="12"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="7"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="12"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="7"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="32"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="20"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="3"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="3"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="3"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="12"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="7"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="29"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="18"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="10"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="7"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="32"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="20"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="54"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="36"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="32"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="20"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="66"/>
       <c r="R26" s="91"/>
-      <c r="S26" s="92"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="56"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1942,11 +1986,9 @@
       <c r="S28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="V7:Y7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
@@ -1956,15 +1998,16 @@
     <mergeCell ref="R8:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:W27"/>
+  <dimension ref="B2:W29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,478 +2017,714 @@
     <col min="4" max="4" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+    </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
     </row>
     <row r="7" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="74"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
     </row>
     <row r="8" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="74"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="75">
         <v>44588</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127">
+      <c r="F8" s="76"/>
+      <c r="G8" s="77">
         <v>44595</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127">
+      <c r="H8" s="76"/>
+      <c r="I8" s="77">
         <v>44602</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="127">
+      <c r="J8" s="76"/>
+      <c r="K8" s="77">
         <v>44616</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="125">
+      <c r="L8" s="78"/>
+      <c r="M8" s="75">
         <v>44623</v>
       </c>
-      <c r="N8" s="126"/>
-      <c r="O8" s="127">
+      <c r="N8" s="76"/>
+      <c r="O8" s="77">
         <v>44630</v>
       </c>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="127">
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77">
         <v>44637</v>
       </c>
-      <c r="R8" s="128"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="77">
+        <v>44644</v>
+      </c>
+      <c r="T8" s="78"/>
+      <c r="U8" s="77">
+        <v>44651</v>
+      </c>
+      <c r="V8" s="78"/>
+      <c r="W8" s="33"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="74"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="33"/>
     </row>
     <row r="10" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="74"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="40"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
     </row>
     <row r="11" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="74"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="94"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="57"/>
     </row>
     <row r="12" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="74"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="94"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="99"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="74"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="99"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="60"/>
     </row>
     <row r="15" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="74"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="94"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="57"/>
     </row>
     <row r="16" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="74"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="49"/>
-    </row>
-    <row r="17" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="57"/>
+    </row>
+    <row r="17" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="74"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="94"/>
-    </row>
-    <row r="18" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="57"/>
+    </row>
+    <row r="18" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="74"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="94"/>
-    </row>
-    <row r="19" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="57"/>
+    </row>
+    <row r="19" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="74"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-    </row>
-    <row r="20" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="60"/>
+    </row>
+    <row r="20" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="74"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="94"/>
-    </row>
-    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="57"/>
+    </row>
+    <row r="21" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="74"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="94"/>
-    </row>
-    <row r="22" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="57"/>
+    </row>
+    <row r="22" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="74"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="99"/>
-    </row>
-    <row r="23" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="60"/>
+    </row>
+    <row r="23" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="74"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="94"/>
-    </row>
-    <row r="24" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E23" s="63"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="57"/>
+    </row>
+    <row r="24" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="74"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="109"/>
-    </row>
-    <row r="25" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E24" s="13"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="64"/>
+    </row>
+    <row r="25" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="74"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="94"/>
-    </row>
-    <row r="26" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="57"/>
+    </row>
+    <row r="26" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="74"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="67"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="3:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="74"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="118"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="70"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="E8:F8"/>

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\ATProgrammationSmartphone\2eme_Semestre\GameAdvice\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11009FCC-1D1A-45F8-A08E-147FE11C61ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A1107-1E8B-4DA6-A33B-C7581D4E68F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Activités</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Création de l'API</t>
   </si>
   <si>
-    <t>Réalisation des pages (HTML et Bootstrap)</t>
-  </si>
-  <si>
     <t>Création du trello, répartition des tâches</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>Présentation</t>
+  </si>
+  <si>
+    <t>Réalisation des pages (Android Studio,Java)</t>
+  </si>
+  <si>
+    <t>Recherche et compréhension d'Android Studio</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,18 +956,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,6 +1075,19 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,17 +1368,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:AA28"/>
+  <dimension ref="C3:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1433,42 +1437,42 @@
       <c r="E8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="128">
         <v>44588</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77">
+      <c r="G8" s="129"/>
+      <c r="H8" s="126">
         <v>44595</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77">
+      <c r="I8" s="129"/>
+      <c r="J8" s="126">
         <v>44602</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77">
+      <c r="K8" s="129"/>
+      <c r="L8" s="126">
         <v>44616</v>
       </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="75">
+      <c r="M8" s="127"/>
+      <c r="N8" s="128">
         <v>44623</v>
       </c>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77">
+      <c r="O8" s="129"/>
+      <c r="P8" s="126">
         <v>44630</v>
       </c>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="77">
+      <c r="Q8" s="129"/>
+      <c r="R8" s="126">
         <v>44637</v>
       </c>
-      <c r="S8" s="78"/>
-      <c r="T8" s="77">
+      <c r="S8" s="127"/>
+      <c r="T8" s="126">
         <v>44644</v>
       </c>
-      <c r="U8" s="78"/>
-      <c r="V8" s="77">
+      <c r="U8" s="127"/>
+      <c r="V8" s="126">
         <v>44651</v>
       </c>
-      <c r="W8" s="78"/>
+      <c r="W8" s="127"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="1"/>
@@ -1481,17 +1485,17 @@
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="82"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="82"/>
+      <c r="J9" s="78"/>
       <c r="K9" s="28"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="82"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="78"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="82"/>
+      <c r="P9" s="78"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="82"/>
+      <c r="R9" s="78"/>
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15"/>
@@ -1510,7 +1514,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
       <c r="L10" s="24"/>
-      <c r="M10" s="94"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
       <c r="P10" s="24"/>
@@ -1529,13 +1533,13 @@
       <c r="E11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="97"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="97"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="2"/>
       <c r="N11" s="17"/>
       <c r="O11" s="9"/>
@@ -1556,12 +1560,12 @@
         <v>15</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="97"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="97"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="97"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="2"/>
       <c r="N12" s="17"/>
       <c r="O12" s="9"/>
@@ -1581,19 +1585,19 @@
       <c r="E13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="101"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="4"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="83"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="83"/>
+      <c r="P13" s="79"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="83"/>
+      <c r="R13" s="79"/>
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
@@ -1605,21 +1609,21 @@
     <row r="14" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="45"/>
-      <c r="G14" s="102"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="83"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="83"/>
+      <c r="P14" s="79"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="83"/>
+      <c r="R14" s="79"/>
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
@@ -1634,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="129"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="17"/>
       <c r="I15" s="9"/>
       <c r="J15" s="17"/>
@@ -1660,18 +1664,18 @@
         <v>16</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="103"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="84"/>
+      <c r="N16" s="80"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="84"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="84"/>
+      <c r="R16" s="80"/>
       <c r="S16" s="3"/>
       <c r="T16" s="6"/>
       <c r="U16" s="3"/>
@@ -1683,21 +1687,21 @@
     <row r="17" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="37" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="51"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="107"/>
       <c r="L17" s="4"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="84"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="84"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="84"/>
+      <c r="R17" s="80"/>
       <c r="S17" s="3"/>
       <c r="T17" s="6"/>
       <c r="U17" s="3"/>
@@ -1709,21 +1713,21 @@
     <row r="18" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="37" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="104"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="4"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="84"/>
+      <c r="N18" s="80"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="84"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="84"/>
+      <c r="R18" s="80"/>
       <c r="S18" s="3"/>
       <c r="T18" s="6"/>
       <c r="U18" s="3"/>
@@ -1735,255 +1739,278 @@
     <row r="19" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="3"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="7"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="90"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="90"/>
+      <c r="J21" s="86"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="10"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="18"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="10"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="E23" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="20"/>
+      <c r="E23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="7"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="E24" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="36"/>
+      <c r="E24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="20"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="36"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="53"/>
+      <c r="E26" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="20"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
-      <c r="E27" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="106"/>
+      <c r="E27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="92"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="92"/>
-      <c r="K27" s="49"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="92"/>
-      <c r="M27" s="49"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="92"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="22"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="56"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+    <row r="28" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="73"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2006,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,42 +2195,42 @@
       <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="128">
         <v>44588</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77">
+      <c r="F8" s="129"/>
+      <c r="G8" s="126">
         <v>44595</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77">
+      <c r="H8" s="129"/>
+      <c r="I8" s="126">
         <v>44602</v>
       </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77">
+      <c r="J8" s="129"/>
+      <c r="K8" s="126">
         <v>44616</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="75">
+      <c r="L8" s="127"/>
+      <c r="M8" s="128">
         <v>44623</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77">
+      <c r="N8" s="129"/>
+      <c r="O8" s="126">
         <v>44630</v>
       </c>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77">
+      <c r="P8" s="129"/>
+      <c r="Q8" s="126">
         <v>44637</v>
       </c>
-      <c r="R8" s="78"/>
-      <c r="S8" s="77">
+      <c r="R8" s="127"/>
+      <c r="S8" s="126">
         <v>44644</v>
       </c>
-      <c r="T8" s="78"/>
-      <c r="U8" s="77">
+      <c r="T8" s="127"/>
+      <c r="U8" s="126">
         <v>44651</v>
       </c>
-      <c r="V8" s="78"/>
+      <c r="V8" s="127"/>
       <c r="W8" s="33"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
@@ -2214,17 +2241,17 @@
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="82"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="82"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="82"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="78"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="82"/>
+      <c r="O9" s="78"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="82"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
       <c r="T9" s="15"/>
@@ -2243,7 +2270,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="94"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
       <c r="O10" s="24"/>
@@ -2262,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="71"/>
-      <c r="F11" s="116"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="13"/>
       <c r="H11" s="48"/>
       <c r="I11" s="13"/>
@@ -2287,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="58"/>
-      <c r="F12" s="116"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="13"/>
       <c r="H12" s="48"/>
       <c r="I12" s="13"/>
@@ -2312,18 +2339,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="72"/>
-      <c r="F13" s="117"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="13"/>
       <c r="H13" s="48"/>
       <c r="I13" s="13"/>
       <c r="J13" s="48"/>
       <c r="K13" s="13"/>
       <c r="L13" s="59"/>
-      <c r="M13" s="118"/>
+      <c r="M13" s="114"/>
       <c r="N13" s="59"/>
-      <c r="O13" s="118"/>
+      <c r="O13" s="114"/>
       <c r="P13" s="59"/>
-      <c r="Q13" s="118"/>
+      <c r="Q13" s="114"/>
       <c r="R13" s="60"/>
       <c r="S13" s="59"/>
       <c r="T13" s="60"/>
@@ -2334,21 +2361,21 @@
       <c r="B14" s="74"/>
       <c r="C14" s="1"/>
       <c r="D14" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="45"/>
-      <c r="F14" s="116"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="13"/>
       <c r="H14" s="48"/>
       <c r="I14" s="13"/>
       <c r="J14" s="48"/>
       <c r="K14" s="13"/>
       <c r="L14" s="59"/>
-      <c r="M14" s="118"/>
+      <c r="M14" s="114"/>
       <c r="N14" s="59"/>
-      <c r="O14" s="118"/>
+      <c r="O14" s="114"/>
       <c r="P14" s="59"/>
-      <c r="Q14" s="118"/>
+      <c r="Q14" s="114"/>
       <c r="R14" s="60"/>
       <c r="S14" s="59"/>
       <c r="T14" s="60"/>
@@ -2362,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="61"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="13"/>
       <c r="H15" s="48"/>
       <c r="I15" s="13"/>
@@ -2387,7 +2414,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="119"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="13"/>
       <c r="H16" s="48"/>
       <c r="I16" s="13"/>
@@ -2409,10 +2436,10 @@
       <c r="B17" s="74"/>
       <c r="C17" s="1"/>
       <c r="D17" s="37" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="48"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13"/>
       <c r="H17" s="48"/>
       <c r="I17" s="13"/>
@@ -2434,10 +2461,10 @@
       <c r="B18" s="74"/>
       <c r="C18" s="1"/>
       <c r="D18" s="37" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="120"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="13"/>
       <c r="H18" s="48"/>
       <c r="I18" s="13"/>
@@ -2459,57 +2486,57 @@
       <c r="B19" s="74"/>
       <c r="C19" s="1"/>
       <c r="D19" s="37" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="60"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="57"/>
     </row>
     <row r="20" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="1"/>
       <c r="D20" s="37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="57"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="74"/>
       <c r="C21" s="1"/>
       <c r="D21" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="48"/>
@@ -2520,74 +2547,74 @@
       <c r="K21" s="13"/>
       <c r="L21" s="48"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="123"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="114"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="57"/>
-      <c r="S21" s="14"/>
+      <c r="S21" s="48"/>
       <c r="T21" s="57"/>
-      <c r="U21" s="14"/>
+      <c r="U21" s="48"/>
       <c r="V21" s="57"/>
     </row>
     <row r="22" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="1"/>
       <c r="D22" s="37" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="123"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="48"/>
       <c r="I22" s="13"/>
       <c r="J22" s="48"/>
       <c r="K22" s="13"/>
       <c r="L22" s="48"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="60"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="48"/>
       <c r="I23" s="13"/>
       <c r="J23" s="48"/>
       <c r="K23" s="13"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="48"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="59"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="57"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="115"/>
       <c r="G24" s="13"/>
       <c r="H24" s="48"/>
       <c r="I24" s="13"/>
@@ -2597,19 +2624,19 @@
       <c r="M24" s="13"/>
       <c r="N24" s="48"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="62"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="64"/>
+      <c r="R24" s="57"/>
       <c r="S24" s="48"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="48"/>
-      <c r="V24" s="64"/>
+      <c r="V24" s="57"/>
     </row>
     <row r="25" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="1"/>
       <c r="D25" s="37" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="48"/>
@@ -2622,84 +2649,89 @@
       <c r="M25" s="13"/>
       <c r="N25" s="48"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="48"/>
+      <c r="P25" s="62"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="57"/>
+      <c r="R25" s="64"/>
       <c r="S25" s="48"/>
-      <c r="T25" s="57"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="48"/>
-      <c r="V25" s="57"/>
+      <c r="V25" s="64"/>
     </row>
     <row r="26" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="65"/>
+      <c r="D26" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="48"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="67"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="57"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B27" s="74"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="70"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D27" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="67"/>
+    </row>
+    <row r="28" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="74"/>
       <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
+      <c r="D28" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="70"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="74"/>

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A1107-1E8B-4DA6-A33B-C7581D4E68F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5842BF0-67DC-4491-A2C1-1792F4410FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Activités</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Recherche et compréhension d'Android Studio</t>
+  </si>
+  <si>
+    <t>Recherche et compréhension de Cordova</t>
+  </si>
+  <si>
+    <t>Réalisation de l'API</t>
+  </si>
+  <si>
+    <t>Conversion du site en cordova</t>
+  </si>
+  <si>
+    <t>Réalisation des pages (Html Css js)</t>
   </si>
 </sst>
 </file>
@@ -770,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,12 +810,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,7 +1094,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,218 +1392,218 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="3:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="3:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="127">
         <v>44588</v>
       </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="126">
+      <c r="G8" s="128"/>
+      <c r="H8" s="125">
         <v>44595</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="126">
+      <c r="I8" s="128"/>
+      <c r="J8" s="125">
         <v>44602</v>
       </c>
-      <c r="K8" s="129"/>
-      <c r="L8" s="126">
+      <c r="K8" s="128"/>
+      <c r="L8" s="125">
         <v>44616</v>
       </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="128">
+      <c r="M8" s="126"/>
+      <c r="N8" s="127">
         <v>44623</v>
       </c>
-      <c r="O8" s="129"/>
-      <c r="P8" s="126">
+      <c r="O8" s="128"/>
+      <c r="P8" s="125">
         <v>44630</v>
       </c>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="126">
+      <c r="Q8" s="128"/>
+      <c r="R8" s="125">
         <v>44637</v>
       </c>
-      <c r="S8" s="127"/>
-      <c r="T8" s="126">
+      <c r="S8" s="126"/>
+      <c r="T8" s="125">
         <v>44644</v>
       </c>
-      <c r="U8" s="127"/>
-      <c r="V8" s="126">
+      <c r="U8" s="126"/>
+      <c r="V8" s="125">
         <v>44651</v>
       </c>
-      <c r="W8" s="127"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="15"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="13"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="24"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="93"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="93"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="93"/>
+      <c r="L11" s="91"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="17"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="20"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="20"/>
+      <c r="U11" s="18"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="20"/>
+      <c r="W11" s="18"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="93"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="93"/>
+      <c r="J12" s="91"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="93"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="17"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="17"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="20"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="20"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="20"/>
+      <c r="W12" s="18"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="97"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="4"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="79"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="79"/>
+      <c r="P13" s="77"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="79"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
@@ -1608,22 +1614,22 @@
     </row>
     <row r="14" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="98"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="79"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="79"/>
+      <c r="P14" s="77"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="79"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
@@ -1634,48 +1640,48 @@
     </row>
     <row r="15" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="17"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="17"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="20"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="20"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="20"/>
+      <c r="W15" s="18"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="99"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="80"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="80"/>
+      <c r="P16" s="78"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="80"/>
+      <c r="R16" s="78"/>
       <c r="S16" s="3"/>
       <c r="T16" s="6"/>
       <c r="U16" s="3"/>
@@ -1686,22 +1692,22 @@
     </row>
     <row r="17" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
-      <c r="E17" s="37" t="s">
-        <v>24</v>
+      <c r="E17" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="107"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="105"/>
       <c r="L17" s="4"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="80"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="80"/>
+      <c r="P17" s="78"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="80"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="3"/>
       <c r="T17" s="6"/>
       <c r="U17" s="3"/>
@@ -1712,22 +1718,22 @@
     </row>
     <row r="18" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="37" t="s">
-        <v>17</v>
+      <c r="E18" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="80"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="80"/>
+      <c r="P18" s="78"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="80"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="3"/>
       <c r="T18" s="6"/>
       <c r="U18" s="3"/>
@@ -1738,22 +1744,22 @@
     </row>
     <row r="19" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="100"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
       <c r="L19" s="4"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="80"/>
+      <c r="N19" s="78"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="80"/>
+      <c r="P19" s="78"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="80"/>
+      <c r="R19" s="78"/>
       <c r="S19" s="3"/>
       <c r="T19" s="6"/>
       <c r="U19" s="3"/>
@@ -1764,25 +1770,25 @@
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="17"/>
+      <c r="E20" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="15"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="105"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="103"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
       <c r="Z20" s="1"/>
@@ -1790,227 +1796,233 @@
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="106"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="104"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="18"/>
+      <c r="W21" s="16"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="E22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="17"/>
+      <c r="E22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="19"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="17"/>
       <c r="W22" s="10"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="E23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="7"/>
+      <c r="E23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="10"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="E24" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="20"/>
+      <c r="E24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="7"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
-      <c r="E25" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="36"/>
+      <c r="E25" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="18"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
-      <c r="E26" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="20"/>
+      <c r="E26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="34"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
-      <c r="E27" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="53"/>
+      <c r="E27" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="15"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="56"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="18"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="44" t="s">
+    <row r="28" spans="4:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="E28" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="54"/>
+    </row>
+    <row r="29" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="22"/>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2045,713 +2057,713 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
     </row>
     <row r="7" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
     </row>
     <row r="8" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="127">
         <v>44588</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="126">
+      <c r="F8" s="128"/>
+      <c r="G8" s="125">
         <v>44595</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="126">
+      <c r="H8" s="128"/>
+      <c r="I8" s="125">
         <v>44602</v>
       </c>
-      <c r="J8" s="129"/>
-      <c r="K8" s="126">
+      <c r="J8" s="128"/>
+      <c r="K8" s="125">
         <v>44616</v>
       </c>
-      <c r="L8" s="127"/>
-      <c r="M8" s="128">
+      <c r="L8" s="126"/>
+      <c r="M8" s="127">
         <v>44623</v>
       </c>
-      <c r="N8" s="129"/>
-      <c r="O8" s="126">
+      <c r="N8" s="128"/>
+      <c r="O8" s="125">
         <v>44630</v>
       </c>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="126">
+      <c r="P8" s="128"/>
+      <c r="Q8" s="125">
         <v>44637</v>
       </c>
-      <c r="R8" s="127"/>
-      <c r="S8" s="126">
+      <c r="R8" s="126"/>
+      <c r="S8" s="125">
         <v>44644</v>
       </c>
-      <c r="T8" s="127"/>
-      <c r="U8" s="126">
+      <c r="T8" s="126"/>
+      <c r="U8" s="125">
         <v>44651</v>
       </c>
-      <c r="V8" s="127"/>
-      <c r="W8" s="33"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="74"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="31"/>
     </row>
     <row r="10" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="74"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="57"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="55"/>
     </row>
     <row r="12" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="57"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="55"/>
     </row>
     <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="60"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="57"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="55"/>
     </row>
     <row r="16" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="74"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="57"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="55"/>
     </row>
     <row r="17" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="57"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="57"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="55"/>
     </row>
     <row r="19" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="74"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="57"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="55"/>
     </row>
     <row r="20" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="74"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="60"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="74"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="57"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="55"/>
     </row>
     <row r="22" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="57"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="55"/>
     </row>
     <row r="23" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="74"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="60"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="58"/>
     </row>
     <row r="24" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="74"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="57"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="55"/>
     </row>
     <row r="25" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="74"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="64"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="62"/>
     </row>
     <row r="26" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="74"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="57"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="55"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="74"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="67"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="65"/>
     </row>
     <row r="28" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="44" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="70"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="68"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5842BF0-67DC-4491-A2C1-1792F4410FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3822A-94F0-4E9D-987C-831A2007740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Activités</t>
   </si>
@@ -112,7 +112,103 @@
     <t>Conversion du site en cordova</t>
   </si>
   <si>
-    <t>Réalisation des pages (Html Css js)</t>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Ajout des données</t>
+  </si>
+  <si>
+    <t>Liaison des pages avec l'api</t>
+  </si>
+  <si>
+    <t>Tester les fonctionnalités de toutes les pages</t>
+  </si>
+  <si>
+    <t>Debuger les fonctionnalités de toutes les pages</t>
+  </si>
+  <si>
+    <t>Cahier de charges</t>
+  </si>
+  <si>
+    <t>Table Categorie</t>
+  </si>
+  <si>
+    <t>Table Games</t>
+  </si>
+  <si>
+    <t>Table LiaisonGameCategorie</t>
+  </si>
+  <si>
+    <t>Table Post</t>
+  </si>
+  <si>
+    <t>Table Replies</t>
+  </si>
+  <si>
+    <t>Table Users</t>
+  </si>
+  <si>
+    <t>Pages Anime-details.html (Html Css js)</t>
+  </si>
+  <si>
+    <t>Pages categories.html (Html Css js)</t>
+  </si>
+  <si>
+    <t>Pages index.html (Html Css js)</t>
+  </si>
+  <si>
+    <t>Pages login.html (Html Css js)</t>
+  </si>
+  <si>
+    <t>Pages main.html (Html Css js)</t>
+  </si>
+  <si>
+    <t>Pages signup.html (Html Css js)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            carrousel d'image de jeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            bouton "jouer mainteant" dirige si officiel du jeu afficher dans le caroussel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Afficher les jeu dans la bd en carré  avec nom et image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Afficher les jeu par leur categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Afficher les jeu comme dans l'index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Afficher l'image du jeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Titre/Description/detail du jeu en mode liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Commentaire des utilisateurs / logo utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Input pour laisser un commentaire / bouton envoyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Input pour email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Input pour password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            bouton valider login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            bouton envoie register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Image de baniere avec ecrit login </t>
   </si>
 </sst>
 </file>
@@ -168,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +379,74 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -778,11 +940,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,9 +1079,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,14 +1134,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,14 +1150,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,9 +1163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,8 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1054,9 +1217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,12 +1254,109 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7979"/>
+      <color rgb="FFFFB9B9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1374,17 +1631,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:AA29"/>
+  <dimension ref="C3:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" customWidth="1"/>
+    <col min="5" max="5" width="105.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1443,42 +1700,42 @@
       <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="118">
         <v>44588</v>
       </c>
-      <c r="G8" s="128"/>
-      <c r="H8" s="125">
+      <c r="G8" s="119"/>
+      <c r="H8" s="116">
         <v>44595</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="125">
+      <c r="I8" s="119"/>
+      <c r="J8" s="116">
         <v>44602</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="125">
+      <c r="K8" s="119"/>
+      <c r="L8" s="116">
         <v>44616</v>
       </c>
-      <c r="M8" s="126"/>
-      <c r="N8" s="127">
+      <c r="M8" s="117"/>
+      <c r="N8" s="118">
         <v>44623</v>
       </c>
-      <c r="O8" s="128"/>
-      <c r="P8" s="125">
+      <c r="O8" s="119"/>
+      <c r="P8" s="116">
         <v>44630</v>
       </c>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="125">
+      <c r="Q8" s="119"/>
+      <c r="R8" s="116">
         <v>44637</v>
       </c>
-      <c r="S8" s="126"/>
-      <c r="T8" s="125">
+      <c r="S8" s="117"/>
+      <c r="T8" s="116">
         <v>44644</v>
       </c>
-      <c r="U8" s="126"/>
-      <c r="V8" s="125">
+      <c r="U8" s="117"/>
+      <c r="V8" s="116">
         <v>44651</v>
       </c>
-      <c r="W8" s="126"/>
+      <c r="W8" s="117"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="1"/>
@@ -1491,17 +1748,17 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="76"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="76"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="73"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="76"/>
+      <c r="P9" s="73"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="76"/>
+      <c r="R9" s="73"/>
       <c r="S9" s="13"/>
       <c r="T9" s="14"/>
       <c r="U9" s="13"/>
@@ -1520,7 +1777,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="88"/>
+      <c r="M10" s="82"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
       <c r="P10" s="22"/>
@@ -1536,42 +1793,42 @@
     </row>
     <row r="11" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="33" t="s">
-        <v>14</v>
+      <c r="E11" s="121" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="122"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="18"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="124"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="91"/>
+        <v>14</v>
+      </c>
+      <c r="F12" s="113"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="91"/>
+      <c r="J12" s="85"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="91"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="2"/>
       <c r="N12" s="15"/>
       <c r="O12" s="9"/>
@@ -1588,48 +1845,48 @@
     </row>
     <row r="13" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
-      <c r="E13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="7"/>
+      <c r="E13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="18"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="112"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="74"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="77"/>
+      <c r="P14" s="74"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="77"/>
+      <c r="R14" s="74"/>
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
@@ -1640,74 +1897,74 @@
     </row>
     <row r="15" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
-      <c r="E15" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="18"/>
+      <c r="E15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="7"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="3"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="18"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="35" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="105"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="4"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="78"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="78"/>
+      <c r="P17" s="75"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="78"/>
+      <c r="R17" s="75"/>
       <c r="S17" s="3"/>
       <c r="T17" s="6"/>
       <c r="U17" s="3"/>
@@ -1718,311 +1975,1045 @@
     </row>
     <row r="18" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
-      <c r="E18" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="3"/>
+      <c r="E18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="18"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
-      <c r="E19" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="3"/>
+      <c r="E19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="18"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="7"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="130"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="16"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="3"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="78"/>
+      <c r="N22" s="75"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="78"/>
+      <c r="P22" s="75"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="10"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="3"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="3"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="35" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="101"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="3"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
-      <c r="E25" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="18"/>
+      <c r="E25" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="3"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="35" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="34"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="3"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="3"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="4:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="4:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="E29" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="4:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="E30" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="4:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="E31" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="132"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="136"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="136"/>
+    </row>
+    <row r="32" spans="4:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="E32" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E33" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E34" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E35" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E36" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E37" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E38" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E40" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E41" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E42" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="7"/>
+    </row>
+    <row r="43" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E43" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="7"/>
+    </row>
+    <row r="44" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E44" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E45" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="7"/>
+    </row>
+    <row r="46" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E46" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="7"/>
+    </row>
+    <row r="47" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E47" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="7"/>
+    </row>
+    <row r="48" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E48" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E49" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="7"/>
+    </row>
+    <row r="50" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E50" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E51" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E52" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="97"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="16"/>
+    </row>
+    <row r="53" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E53" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E54" s="137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="138"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="141"/>
+      <c r="P54" s="142"/>
+      <c r="Q54" s="143"/>
+      <c r="R54" s="140"/>
+      <c r="S54" s="144"/>
+      <c r="T54" s="141"/>
+      <c r="U54" s="144"/>
+      <c r="V54" s="141"/>
+      <c r="W54" s="144"/>
+    </row>
+    <row r="55" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E55" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E56" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="95"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E57" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="54"/>
-    </row>
-    <row r="29" spans="4:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="20"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="149"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="149"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="149"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="149"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="149"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="150"/>
+      <c r="T57" s="149"/>
+      <c r="U57" s="150"/>
+      <c r="V57" s="149"/>
+      <c r="W57" s="150"/>
+    </row>
+    <row r="58" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E58" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="100"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="34"/>
+    </row>
+    <row r="59" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E60" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="50"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="53"/>
+    </row>
+    <row r="61" spans="5:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="42"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="110"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="110"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2046,7 +3037,7 @@
   <dimension ref="B2:W29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,139 +3048,139 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="38"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="41"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="1"/>
       <c r="D7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
-      <c r="L7" s="72"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
@@ -2202,68 +3193,68 @@
       <c r="V7" s="31"/>
     </row>
     <row r="8" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="72"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="1"/>
       <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="127">
+      <c r="E8" s="118">
         <v>44588</v>
       </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="125">
+      <c r="F8" s="119"/>
+      <c r="G8" s="116">
         <v>44595</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="125">
+      <c r="H8" s="119"/>
+      <c r="I8" s="116">
         <v>44602</v>
       </c>
-      <c r="J8" s="128"/>
-      <c r="K8" s="125">
+      <c r="J8" s="119"/>
+      <c r="K8" s="116">
         <v>44616</v>
       </c>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127">
+      <c r="L8" s="117"/>
+      <c r="M8" s="118">
         <v>44623</v>
       </c>
-      <c r="N8" s="128"/>
-      <c r="O8" s="125">
+      <c r="N8" s="119"/>
+      <c r="O8" s="116">
         <v>44630</v>
       </c>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="125">
+      <c r="P8" s="119"/>
+      <c r="Q8" s="116">
         <v>44637</v>
       </c>
-      <c r="R8" s="126"/>
-      <c r="S8" s="125">
+      <c r="R8" s="117"/>
+      <c r="S8" s="116">
         <v>44644</v>
       </c>
-      <c r="T8" s="126"/>
-      <c r="U8" s="125">
+      <c r="T8" s="117"/>
+      <c r="U8" s="116">
         <v>44651</v>
       </c>
-      <c r="V8" s="126"/>
+      <c r="V8" s="117"/>
       <c r="W8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="1"/>
       <c r="D9" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="76"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="76"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="76"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="76"/>
+      <c r="O9" s="73"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="76"/>
+      <c r="Q9" s="73"/>
       <c r="R9" s="13"/>
       <c r="S9" s="14"/>
       <c r="T9" s="13"/>
@@ -2272,7 +3263,7 @@
       <c r="W9" s="31"/>
     </row>
     <row r="10" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="1"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
@@ -2282,7 +3273,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="88"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="22"/>
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
@@ -2295,13 +3286,13 @@
       <c r="V10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="1"/>
       <c r="D11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="110"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="11"/>
       <c r="H11" s="46"/>
       <c r="I11" s="11"/>
@@ -2313,20 +3304,20 @@
       <c r="O11" s="11"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="55"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="46"/>
-      <c r="T11" s="55"/>
+      <c r="T11" s="54"/>
       <c r="U11" s="46"/>
-      <c r="V11" s="55"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="1"/>
       <c r="D12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="110"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="11"/>
       <c r="H12" s="46"/>
       <c r="I12" s="11"/>
@@ -2338,70 +3329,70 @@
       <c r="O12" s="11"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="55"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="46"/>
-      <c r="T12" s="55"/>
+      <c r="T12" s="54"/>
       <c r="U12" s="46"/>
-      <c r="V12" s="55"/>
+      <c r="V12" s="54"/>
     </row>
     <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="1"/>
       <c r="D13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="111"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="11"/>
       <c r="H13" s="46"/>
       <c r="I13" s="11"/>
       <c r="J13" s="46"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="57"/>
     </row>
     <row r="14" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="1"/>
       <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="43"/>
-      <c r="F14" s="110"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="11"/>
       <c r="H14" s="46"/>
       <c r="I14" s="11"/>
       <c r="J14" s="46"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="57"/>
     </row>
     <row r="15" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="1"/>
       <c r="D15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="120"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="11"/>
       <c r="H15" s="46"/>
       <c r="I15" s="11"/>
@@ -2413,20 +3404,20 @@
       <c r="O15" s="11"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="55"/>
+      <c r="R15" s="54"/>
       <c r="S15" s="46"/>
-      <c r="T15" s="55"/>
+      <c r="T15" s="54"/>
       <c r="U15" s="46"/>
-      <c r="V15" s="55"/>
+      <c r="V15" s="54"/>
     </row>
     <row r="16" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="1"/>
       <c r="D16" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="113"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="11"/>
       <c r="H16" s="46"/>
       <c r="I16" s="11"/>
@@ -2438,20 +3429,20 @@
       <c r="O16" s="11"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="55"/>
+      <c r="R16" s="54"/>
       <c r="S16" s="46"/>
-      <c r="T16" s="55"/>
+      <c r="T16" s="54"/>
       <c r="U16" s="46"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="54"/>
     </row>
     <row r="17" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="1"/>
       <c r="D17" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="124"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="11"/>
       <c r="H17" s="46"/>
       <c r="I17" s="11"/>
@@ -2463,14 +3454,14 @@
       <c r="O17" s="11"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="55"/>
+      <c r="R17" s="54"/>
       <c r="S17" s="46"/>
-      <c r="T17" s="55"/>
+      <c r="T17" s="54"/>
       <c r="U17" s="46"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="54"/>
     </row>
     <row r="18" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="1"/>
       <c r="D18" s="35" t="s">
         <v>17</v>
@@ -2488,20 +3479,20 @@
       <c r="O18" s="11"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="55"/>
+      <c r="R18" s="54"/>
       <c r="S18" s="46"/>
-      <c r="T18" s="55"/>
+      <c r="T18" s="54"/>
       <c r="U18" s="46"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="54"/>
     </row>
     <row r="19" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="1"/>
       <c r="D19" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="114"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="11"/>
       <c r="H19" s="46"/>
       <c r="I19" s="11"/>
@@ -2513,39 +3504,39 @@
       <c r="O19" s="11"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="55"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="46"/>
-      <c r="T19" s="55"/>
+      <c r="T19" s="54"/>
       <c r="U19" s="46"/>
-      <c r="V19" s="55"/>
+      <c r="V19" s="54"/>
     </row>
     <row r="20" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="1"/>
       <c r="D20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="46"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="58"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
     </row>
     <row r="21" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="1"/>
       <c r="D21" s="35" t="s">
         <v>19</v>
@@ -2560,17 +3551,17 @@
       <c r="L21" s="46"/>
       <c r="M21" s="11"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="112"/>
+      <c r="O21" s="103"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="55"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="46"/>
-      <c r="T21" s="55"/>
+      <c r="T21" s="54"/>
       <c r="U21" s="46"/>
-      <c r="V21" s="55"/>
+      <c r="V21" s="54"/>
     </row>
     <row r="22" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="1"/>
       <c r="D22" s="35" t="s">
         <v>20</v>
@@ -2584,49 +3575,49 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="117"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="55"/>
+      <c r="R22" s="54"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="55"/>
+      <c r="T22" s="54"/>
       <c r="U22" s="12"/>
-      <c r="V22" s="55"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="1"/>
       <c r="D23" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="117"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="46"/>
       <c r="I23" s="11"/>
       <c r="J23" s="46"/>
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="57"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="58"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="57"/>
     </row>
     <row r="24" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="1"/>
       <c r="D24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="113"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="11"/>
       <c r="H24" s="46"/>
       <c r="I24" s="11"/>
@@ -2638,14 +3629,14 @@
       <c r="O24" s="11"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="55"/>
+      <c r="R24" s="54"/>
       <c r="S24" s="46"/>
-      <c r="T24" s="55"/>
+      <c r="T24" s="54"/>
       <c r="U24" s="46"/>
-      <c r="V24" s="55"/>
+      <c r="V24" s="54"/>
     </row>
     <row r="25" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="1"/>
       <c r="D25" s="35" t="s">
         <v>21</v>
@@ -2661,16 +3652,16 @@
       <c r="M25" s="11"/>
       <c r="N25" s="46"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="60"/>
+      <c r="P25" s="59"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="62"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="46"/>
-      <c r="T25" s="62"/>
+      <c r="T25" s="61"/>
       <c r="U25" s="46"/>
-      <c r="V25" s="62"/>
+      <c r="V25" s="61"/>
     </row>
     <row r="26" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="72"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="1"/>
       <c r="D26" s="35" t="s">
         <v>7</v>
@@ -2688,82 +3679,82 @@
       <c r="O26" s="11"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="55"/>
+      <c r="R26" s="54"/>
       <c r="S26" s="46"/>
-      <c r="T26" s="55"/>
+      <c r="T26" s="54"/>
       <c r="U26" s="46"/>
-      <c r="V26" s="55"/>
+      <c r="V26" s="54"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="46"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="65"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="64"/>
     </row>
     <row r="28" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="68"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="67"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3822A-94F0-4E9D-987C-831A2007740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C887DEF-3B86-4816-B4DB-EB85B7F0C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Activités</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">            Image de baniere avec ecrit login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">George = </t>
   </si>
 </sst>
 </file>
@@ -1242,18 +1245,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1343,6 +1334,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:F51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D4" s="39"/>
     </row>
@@ -1700,42 +1703,42 @@
       <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="149">
         <v>44588</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="116">
+      <c r="G8" s="150"/>
+      <c r="H8" s="147">
         <v>44595</v>
       </c>
-      <c r="I8" s="119"/>
-      <c r="J8" s="116">
+      <c r="I8" s="150"/>
+      <c r="J8" s="147">
         <v>44602</v>
       </c>
-      <c r="K8" s="119"/>
-      <c r="L8" s="116">
+      <c r="K8" s="150"/>
+      <c r="L8" s="147">
         <v>44616</v>
       </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118">
+      <c r="M8" s="148"/>
+      <c r="N8" s="149">
         <v>44623</v>
       </c>
-      <c r="O8" s="119"/>
-      <c r="P8" s="116">
+      <c r="O8" s="150"/>
+      <c r="P8" s="147">
         <v>44630</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="116">
+      <c r="Q8" s="150"/>
+      <c r="R8" s="147">
         <v>44637</v>
       </c>
-      <c r="S8" s="117"/>
-      <c r="T8" s="116">
+      <c r="S8" s="148"/>
+      <c r="T8" s="147">
         <v>44644</v>
       </c>
-      <c r="U8" s="117"/>
-      <c r="V8" s="116">
+      <c r="U8" s="148"/>
+      <c r="V8" s="147">
         <v>44651</v>
       </c>
-      <c r="W8" s="117"/>
+      <c r="W8" s="148"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="1"/>
@@ -1793,27 +1796,27 @@
     </row>
     <row r="11" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="124"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="120"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
@@ -2027,27 +2030,27 @@
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="125" t="s">
+      <c r="E20" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="130"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="130"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="126"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
@@ -2057,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="120"/>
+      <c r="G21" s="116"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -2305,27 +2308,27 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="4:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="E31" s="131" t="s">
+      <c r="E31" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="132"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="136"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="132"/>
     </row>
     <row r="32" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E32" s="35" t="s">
@@ -2834,27 +2837,27 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="138"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="139"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="139"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="141"/>
-      <c r="P54" s="142"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="140"/>
-      <c r="S54" s="144"/>
-      <c r="T54" s="141"/>
-      <c r="U54" s="144"/>
-      <c r="V54" s="141"/>
-      <c r="W54" s="144"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="136"/>
+      <c r="O54" s="137"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="136"/>
+      <c r="S54" s="140"/>
+      <c r="T54" s="137"/>
+      <c r="U54" s="140"/>
+      <c r="V54" s="137"/>
+      <c r="W54" s="140"/>
     </row>
     <row r="55" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E55" s="35" t="s">
@@ -2903,27 +2906,27 @@
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E57" s="145" t="s">
+      <c r="E57" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="146"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="149"/>
-      <c r="J57" s="148"/>
-      <c r="K57" s="149"/>
-      <c r="L57" s="148"/>
-      <c r="M57" s="149"/>
-      <c r="N57" s="148"/>
-      <c r="O57" s="149"/>
-      <c r="P57" s="148"/>
-      <c r="Q57" s="149"/>
-      <c r="R57" s="148"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="149"/>
-      <c r="U57" s="150"/>
-      <c r="V57" s="149"/>
-      <c r="W57" s="150"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="145"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="145"/>
+      <c r="W57" s="146"/>
     </row>
     <row r="58" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E58" s="35" t="s">
@@ -3198,42 +3201,42 @@
       <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="118">
+      <c r="E8" s="149">
         <v>44588</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="116">
+      <c r="F8" s="150"/>
+      <c r="G8" s="147">
         <v>44595</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="116">
+      <c r="H8" s="150"/>
+      <c r="I8" s="147">
         <v>44602</v>
       </c>
-      <c r="J8" s="119"/>
-      <c r="K8" s="116">
+      <c r="J8" s="150"/>
+      <c r="K8" s="147">
         <v>44616</v>
       </c>
-      <c r="L8" s="117"/>
-      <c r="M8" s="118">
+      <c r="L8" s="148"/>
+      <c r="M8" s="149">
         <v>44623</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="116">
+      <c r="N8" s="150"/>
+      <c r="O8" s="147">
         <v>44630</v>
       </c>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="116">
+      <c r="P8" s="150"/>
+      <c r="Q8" s="147">
         <v>44637</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="116">
+      <c r="R8" s="148"/>
+      <c r="S8" s="147">
         <v>44644</v>
       </c>
-      <c r="T8" s="117"/>
-      <c r="U8" s="116">
+      <c r="T8" s="148"/>
+      <c r="U8" s="147">
         <v>44651</v>
       </c>
-      <c r="V8" s="117"/>
+      <c r="V8" s="148"/>
       <c r="W8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C887DEF-3B86-4816-B4DB-EB85B7F0C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4184BBC1-E852-4798-8FB0-1282089610FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Activités</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Pages login.html (Html Css js)</t>
   </si>
   <si>
-    <t>Pages main.html (Html Css js)</t>
-  </si>
-  <si>
     <t>Pages signup.html (Html Css js)</t>
   </si>
   <si>
@@ -211,7 +208,25 @@
     <t xml:space="preserve">            Image de baniere avec ecrit login </t>
   </si>
   <si>
-    <t xml:space="preserve">George = </t>
+    <t xml:space="preserve">            Input pour pseudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Bouton pour valider le register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            lien sur text pour return login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            baniere en haut avec signup ecrit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Method de l'api avec les page du site</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
   </si>
 </sst>
 </file>
@@ -1634,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:AA61"/>
+  <dimension ref="C3:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1671,7 @@
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D4" s="39"/>
     </row>
@@ -2030,63 +2045,63 @@
     </row>
     <row r="20" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
-      <c r="E20" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="126"/>
+      <c r="E20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="18"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="3"/>
+      <c r="E21" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="126"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="35" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="91"/>
+      <c r="G22" s="116"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
@@ -2109,7 +2124,7 @@
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="91"/>
@@ -2135,7 +2150,7 @@
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="91"/>
@@ -2161,7 +2176,7 @@
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="91"/>
@@ -2187,7 +2202,7 @@
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="91"/>
@@ -2213,7 +2228,7 @@
     <row r="27" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="91"/>
@@ -2240,14 +2255,14 @@
     </row>
     <row r="28" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E28" s="35" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="39"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="4"/>
       <c r="M28" s="6"/>
       <c r="N28" s="75"/>
@@ -2263,14 +2278,14 @@
     </row>
     <row r="29" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E29" s="35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="97"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="39"/>
       <c r="L29" s="4"/>
       <c r="M29" s="6"/>
       <c r="N29" s="75"/>
@@ -2286,16 +2301,16 @@
     </row>
     <row r="30" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E30" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="48"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="75"/>
       <c r="O30" s="6"/>
       <c r="P30" s="75"/>
@@ -2308,54 +2323,54 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="4:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="E31" s="127" t="s">
+      <c r="E31" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="4:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="E32" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="128"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="132"/>
-    </row>
-    <row r="32" spans="4:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="E32" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="7"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="132"/>
     </row>
     <row r="33" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E33" s="35" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="9"/>
@@ -2378,7 +2393,7 @@
     </row>
     <row r="34" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E34" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="9"/>
@@ -2401,7 +2416,7 @@
     </row>
     <row r="35" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E35" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="9"/>
@@ -2424,7 +2439,7 @@
     </row>
     <row r="36" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E36" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="9"/>
@@ -2447,7 +2462,7 @@
     </row>
     <row r="37" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E37" s="35" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="9"/>
@@ -2470,7 +2485,7 @@
     </row>
     <row r="38" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E38" s="35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="9"/>
@@ -2493,7 +2508,7 @@
     </row>
     <row r="39" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E39" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="9"/>
@@ -2516,7 +2531,7 @@
     </row>
     <row r="40" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E40" s="35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="9"/>
@@ -2539,7 +2554,7 @@
     </row>
     <row r="41" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E41" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="9"/>
@@ -2562,7 +2577,7 @@
     </row>
     <row r="42" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E42" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="9"/>
@@ -2585,7 +2600,7 @@
     </row>
     <row r="43" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E43" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="9"/>
@@ -2608,7 +2623,7 @@
     </row>
     <row r="44" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E44" s="35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="9"/>
@@ -2631,7 +2646,7 @@
     </row>
     <row r="45" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E45" s="35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="9"/>
@@ -2654,7 +2669,7 @@
     </row>
     <row r="46" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E46" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="9"/>
@@ -2677,7 +2692,7 @@
     </row>
     <row r="47" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E47" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="9"/>
@@ -2700,7 +2715,7 @@
     </row>
     <row r="48" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E48" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="9"/>
@@ -2723,7 +2738,7 @@
     </row>
     <row r="49" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E49" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="9"/>
@@ -2746,7 +2761,7 @@
     </row>
     <row r="50" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E50" s="35" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="9"/>
@@ -2769,7 +2784,7 @@
     </row>
     <row r="51" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E51" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="9"/>
@@ -2792,91 +2807,91 @@
     </row>
     <row r="52" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E52" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="97"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="7"/>
     </row>
     <row r="53" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E53" s="35" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="98"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="10"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="95"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="7"/>
     </row>
     <row r="54" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E54" s="133" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="134"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="135"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="135"/>
-      <c r="N54" s="136"/>
-      <c r="O54" s="137"/>
-      <c r="P54" s="138"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="136"/>
-      <c r="S54" s="140"/>
-      <c r="T54" s="137"/>
-      <c r="U54" s="140"/>
-      <c r="V54" s="137"/>
-      <c r="W54" s="140"/>
+      <c r="E54" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="7"/>
     </row>
     <row r="55" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E55" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="86"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="95"/>
       <c r="T55" s="72"/>
       <c r="U55" s="95"/>
       <c r="V55" s="8"/>
@@ -2884,139 +2899,367 @@
     </row>
     <row r="56" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E56" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="95"/>
       <c r="T56" s="72"/>
       <c r="U56" s="95"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E57" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="142"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="144"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="146"/>
+      <c r="E57" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="86"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="7"/>
     </row>
     <row r="58" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E58" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="100"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="34"/>
+        <v>63</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="7"/>
     </row>
     <row r="59" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E59" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="99"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="97"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="16"/>
     </row>
     <row r="60" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="97"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="16"/>
+    </row>
+    <row r="61" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E61" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="98"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="98"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="10"/>
+    </row>
+    <row r="62" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E62" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="98"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="98"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="10"/>
+    </row>
+    <row r="63" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E63" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="98"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="98"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="10"/>
+    </row>
+    <row r="64" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E64" s="35"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="98"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="98"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="10"/>
+    </row>
+    <row r="65" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E65" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="134"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="135"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="137"/>
+      <c r="P65" s="138"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="136"/>
+      <c r="S65" s="140"/>
+      <c r="T65" s="137"/>
+      <c r="U65" s="140"/>
+      <c r="V65" s="137"/>
+      <c r="W65" s="140"/>
+    </row>
+    <row r="66" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E66" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="74"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="72"/>
+      <c r="U66" s="95"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E67" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="74"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="95"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="7"/>
+    </row>
+    <row r="68" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E68" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="53"/>
-    </row>
-    <row r="61" spans="5:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="42"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="110"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="110"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="110"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="110"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="110"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="20"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="145"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="145"/>
+      <c r="L68" s="144"/>
+      <c r="M68" s="145"/>
+      <c r="N68" s="144"/>
+      <c r="O68" s="145"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="145"/>
+      <c r="R68" s="144"/>
+      <c r="S68" s="146"/>
+      <c r="T68" s="145"/>
+      <c r="U68" s="146"/>
+      <c r="V68" s="145"/>
+      <c r="W68" s="146"/>
+    </row>
+    <row r="69" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E69" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="100"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="34"/>
+    </row>
+    <row r="70" spans="5:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="E70" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="50"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="80"/>
+      <c r="S70" s="64"/>
+      <c r="T70" s="63"/>
+      <c r="U70" s="64"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="53"/>
+    </row>
+    <row r="71" spans="5:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="42"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="110"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\ATProgrammationSmartphone\2eme_Semestre\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4184BBC1-E852-4798-8FB0-1282089610FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7FA4A-2079-47AF-B3FF-1E571DB1C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Activités</t>
   </si>
@@ -79,28 +79,13 @@
     <t>Création de la base de données</t>
   </si>
   <si>
-    <t>Création de l'API</t>
-  </si>
-  <si>
     <t>Création du trello, répartition des tâches</t>
   </si>
   <si>
-    <t>Coder la page de détails des jeux</t>
-  </si>
-  <si>
-    <t>Réaliser le forum</t>
-  </si>
-  <si>
     <t>Préparation de la présentation</t>
   </si>
   <si>
     <t>Présentation</t>
-  </si>
-  <si>
-    <t>Réalisation des pages (Android Studio,Java)</t>
-  </si>
-  <si>
-    <t>Recherche et compréhension d'Android Studio</t>
   </si>
   <si>
     <t>Recherche et compréhension de Cordova</t>
@@ -282,7 +267,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -977,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,24 +1110,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,8 +1133,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1235,27 +1216,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1361,6 +1331,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,42 +1694,42 @@
       <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="149">
+      <c r="F8" s="136">
         <v>44588</v>
       </c>
-      <c r="G8" s="150"/>
-      <c r="H8" s="147">
+      <c r="G8" s="137"/>
+      <c r="H8" s="134">
         <v>44595</v>
       </c>
-      <c r="I8" s="150"/>
-      <c r="J8" s="147">
+      <c r="I8" s="137"/>
+      <c r="J8" s="134">
         <v>44602</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="147">
+      <c r="K8" s="137"/>
+      <c r="L8" s="134">
         <v>44616</v>
       </c>
-      <c r="M8" s="148"/>
-      <c r="N8" s="149">
+      <c r="M8" s="135"/>
+      <c r="N8" s="136">
         <v>44623</v>
       </c>
-      <c r="O8" s="150"/>
-      <c r="P8" s="147">
+      <c r="O8" s="137"/>
+      <c r="P8" s="134">
         <v>44630</v>
       </c>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="147">
+      <c r="Q8" s="137"/>
+      <c r="R8" s="134">
         <v>44637</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="147">
+      <c r="S8" s="135"/>
+      <c r="T8" s="134">
         <v>44644</v>
       </c>
-      <c r="U8" s="148"/>
-      <c r="V8" s="147">
+      <c r="U8" s="135"/>
+      <c r="V8" s="134">
         <v>44651</v>
       </c>
-      <c r="W8" s="148"/>
+      <c r="W8" s="135"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="1"/>
@@ -1766,17 +1742,17 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="73"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="73"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="73"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="73"/>
+      <c r="P9" s="67"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="73"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="13"/>
       <c r="T9" s="14"/>
       <c r="U9" s="13"/>
@@ -1795,7 +1771,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="82"/>
+      <c r="M10" s="76"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23"/>
       <c r="P10" s="22"/>
@@ -1811,27 +1787,27 @@
     </row>
     <row r="11" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="120"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="107"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
@@ -1840,13 +1816,13 @@
       <c r="E12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="85"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="85"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="85"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="2"/>
       <c r="N12" s="15"/>
       <c r="O12" s="9"/>
@@ -1867,12 +1843,12 @@
         <v>15</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="85"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="2"/>
       <c r="N13" s="15"/>
       <c r="O13" s="9"/>
@@ -1892,19 +1868,19 @@
       <c r="E14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="89"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="74"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="74"/>
+      <c r="P14" s="68"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="74"/>
+      <c r="R14" s="68"/>
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
@@ -1916,21 +1892,21 @@
     <row r="15" spans="3:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="90"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="4"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="74"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="74"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="74"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
       <c r="U15" s="7"/>
@@ -1945,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="114"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="15"/>
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
@@ -1971,18 +1947,18 @@
         <v>4</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="92"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="4"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="75"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="75"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="75"/>
+      <c r="R17" s="69"/>
       <c r="S17" s="3"/>
       <c r="T17" s="6"/>
       <c r="U17" s="3"/>
@@ -1994,24 +1970,24 @@
     <row r="18" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F18" s="47"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="79"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="79"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="79"/>
+      <c r="L18" s="73"/>
       <c r="M18" s="32"/>
-      <c r="N18" s="79"/>
+      <c r="N18" s="73"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="79"/>
+      <c r="P18" s="73"/>
       <c r="Q18" s="32"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="99"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="93"/>
       <c r="T18" s="32"/>
-      <c r="U18" s="99"/>
+      <c r="U18" s="93"/>
       <c r="V18" s="9"/>
       <c r="W18" s="18"/>
       <c r="Z18" s="1"/>
@@ -2022,22 +1998,22 @@
       <c r="E19" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="79"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="73"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="79"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="79"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="79"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="79"/>
+      <c r="P19" s="73"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="99"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="93"/>
       <c r="T19" s="32"/>
-      <c r="U19" s="99"/>
+      <c r="U19" s="93"/>
       <c r="V19" s="9"/>
       <c r="W19" s="18"/>
       <c r="Z19" s="1"/>
@@ -2063,7 +2039,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="18"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="99"/>
+      <c r="U20" s="93"/>
       <c r="V20" s="9"/>
       <c r="W20" s="18"/>
       <c r="Z20" s="1"/>
@@ -2071,27 +2047,27 @@
     </row>
     <row r="21" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="E21" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="126"/>
+      <c r="E21" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="113"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
@@ -2101,18 +2077,18 @@
         <v>16</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="116"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="75"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="75"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="75"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="3"/>
       <c r="T22" s="6"/>
       <c r="U22" s="3"/>
@@ -2124,21 +2100,21 @@
     <row r="23" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="91"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="75"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="75"/>
+      <c r="P23" s="69"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="75"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="3"/>
       <c r="T23" s="6"/>
       <c r="U23" s="3"/>
@@ -2150,21 +2126,21 @@
     <row r="24" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="91"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="75"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="75"/>
+      <c r="P24" s="69"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="75"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="3"/>
       <c r="T24" s="6"/>
       <c r="U24" s="3"/>
@@ -2176,21 +2152,21 @@
     <row r="25" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="91"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="4"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="75"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="75"/>
+      <c r="P25" s="69"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="75"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="3"/>
       <c r="T25" s="6"/>
       <c r="U25" s="3"/>
@@ -2202,21 +2178,21 @@
     <row r="26" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="91"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="75"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="75"/>
+      <c r="P26" s="69"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="75"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="3"/>
       <c r="T26" s="6"/>
       <c r="U26" s="3"/>
@@ -2228,21 +2204,21 @@
     <row r="27" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="91"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="75"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="75"/>
+      <c r="P27" s="69"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="75"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="3"/>
       <c r="T27" s="6"/>
       <c r="U27" s="3"/>
@@ -2255,21 +2231,21 @@
     </row>
     <row r="28" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E28" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="91"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="75"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="75"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="75"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="3"/>
       <c r="T28" s="6"/>
       <c r="U28" s="3"/>
@@ -2278,7 +2254,7 @@
     </row>
     <row r="29" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E29" s="35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
@@ -2288,11 +2264,11 @@
       <c r="K29" s="39"/>
       <c r="L29" s="4"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="75"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="75"/>
+      <c r="P29" s="69"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="75"/>
+      <c r="R29" s="69"/>
       <c r="S29" s="3"/>
       <c r="T29" s="6"/>
       <c r="U29" s="3"/>
@@ -2301,21 +2277,21 @@
     </row>
     <row r="30" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E30" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="97"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="91"/>
       <c r="L30" s="4"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="75"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="75"/>
+      <c r="P30" s="69"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="75"/>
+      <c r="R30" s="69"/>
       <c r="S30" s="3"/>
       <c r="T30" s="6"/>
       <c r="U30" s="3"/>
@@ -2324,21 +2300,21 @@
     </row>
     <row r="31" spans="4:27" ht="21" x14ac:dyDescent="0.25">
       <c r="E31" s="35" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="87"/>
+      <c r="J31" s="81"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="87"/>
+      <c r="L31" s="81"/>
       <c r="M31" s="48"/>
-      <c r="N31" s="75"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="75"/>
+      <c r="P31" s="69"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="75"/>
+      <c r="R31" s="69"/>
       <c r="S31" s="3"/>
       <c r="T31" s="6"/>
       <c r="U31" s="3"/>
@@ -2346,629 +2322,629 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="4:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="E32" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="128"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="132"/>
+      <c r="E32" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="119"/>
     </row>
     <row r="33" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E33" s="35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="86"/>
+      <c r="H33" s="80"/>
       <c r="I33" s="44"/>
-      <c r="J33" s="86"/>
+      <c r="J33" s="80"/>
       <c r="K33" s="44"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="95"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="89"/>
       <c r="V33" s="8"/>
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E34" s="35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="86"/>
+      <c r="H34" s="80"/>
       <c r="I34" s="44"/>
-      <c r="J34" s="86"/>
+      <c r="J34" s="80"/>
       <c r="K34" s="44"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="95"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="89"/>
       <c r="V34" s="8"/>
       <c r="W34" s="7"/>
     </row>
     <row r="35" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E35" s="35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="86"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="86"/>
+      <c r="J35" s="80"/>
       <c r="K35" s="44"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="95"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="89"/>
       <c r="V35" s="8"/>
       <c r="W35" s="7"/>
     </row>
     <row r="36" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E36" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="86"/>
+      <c r="H36" s="80"/>
       <c r="I36" s="44"/>
-      <c r="J36" s="86"/>
+      <c r="J36" s="80"/>
       <c r="K36" s="44"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="95"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="89"/>
       <c r="V36" s="8"/>
       <c r="W36" s="7"/>
     </row>
     <row r="37" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E37" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="86"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="44"/>
-      <c r="J37" s="86"/>
+      <c r="J37" s="80"/>
       <c r="K37" s="44"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="95"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="89"/>
       <c r="V37" s="8"/>
       <c r="W37" s="7"/>
     </row>
     <row r="38" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E38" s="35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="86"/>
+      <c r="H38" s="80"/>
       <c r="I38" s="44"/>
-      <c r="J38" s="86"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="44"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="95"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="89"/>
       <c r="V38" s="8"/>
       <c r="W38" s="7"/>
     </row>
     <row r="39" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E39" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="86"/>
+      <c r="H39" s="80"/>
       <c r="I39" s="44"/>
-      <c r="J39" s="86"/>
+      <c r="J39" s="80"/>
       <c r="K39" s="44"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="95"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="89"/>
       <c r="V39" s="8"/>
       <c r="W39" s="7"/>
     </row>
     <row r="40" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E40" s="35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="86"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="44"/>
-      <c r="J40" s="86"/>
+      <c r="J40" s="80"/>
       <c r="K40" s="44"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="94"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="95"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="89"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
     </row>
     <row r="41" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E41" s="35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="86"/>
+      <c r="J41" s="80"/>
       <c r="K41" s="44"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="95"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="89"/>
       <c r="V41" s="8"/>
       <c r="W41" s="7"/>
     </row>
     <row r="42" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E42" s="35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="86"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="44"/>
-      <c r="J42" s="86"/>
+      <c r="J42" s="80"/>
       <c r="K42" s="44"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="95"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="89"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
     </row>
     <row r="43" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E43" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="86"/>
+      <c r="H43" s="80"/>
       <c r="I43" s="44"/>
-      <c r="J43" s="86"/>
+      <c r="J43" s="80"/>
       <c r="K43" s="44"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="95"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="89"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
     </row>
     <row r="44" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E44" s="35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="86"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="44"/>
-      <c r="J44" s="86"/>
+      <c r="J44" s="80"/>
       <c r="K44" s="44"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="95"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="89"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
     </row>
     <row r="45" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E45" s="35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="86"/>
+      <c r="H45" s="80"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="86"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="44"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="95"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="89"/>
       <c r="V45" s="8"/>
       <c r="W45" s="7"/>
     </row>
     <row r="46" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E46" s="35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="86"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="86"/>
+      <c r="J46" s="80"/>
       <c r="K46" s="44"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="95"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="89"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
     </row>
     <row r="47" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E47" s="35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="86"/>
+      <c r="H47" s="80"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="86"/>
+      <c r="J47" s="80"/>
       <c r="K47" s="44"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="95"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="89"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
     </row>
     <row r="48" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E48" s="35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="86"/>
+      <c r="H48" s="80"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="86"/>
+      <c r="J48" s="80"/>
       <c r="K48" s="44"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="95"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="89"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
     </row>
     <row r="49" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E49" s="35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="86"/>
+      <c r="H49" s="80"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="86"/>
+      <c r="J49" s="80"/>
       <c r="K49" s="44"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="94"/>
-      <c r="S49" s="95"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="95"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="65"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="89"/>
       <c r="V49" s="8"/>
       <c r="W49" s="7"/>
     </row>
     <row r="50" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E50" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="86"/>
+      <c r="H50" s="80"/>
       <c r="I50" s="44"/>
-      <c r="J50" s="86"/>
+      <c r="J50" s="80"/>
       <c r="K50" s="44"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="95"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="95"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="89"/>
       <c r="V50" s="8"/>
       <c r="W50" s="7"/>
     </row>
     <row r="51" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E51" s="35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="86"/>
+      <c r="H51" s="80"/>
       <c r="I51" s="44"/>
-      <c r="J51" s="86"/>
+      <c r="J51" s="80"/>
       <c r="K51" s="44"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="95"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="89"/>
       <c r="V51" s="8"/>
       <c r="W51" s="7"/>
     </row>
     <row r="52" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E52" s="35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="86"/>
+      <c r="H52" s="80"/>
       <c r="I52" s="44"/>
-      <c r="J52" s="86"/>
+      <c r="J52" s="80"/>
       <c r="K52" s="44"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="95"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="89"/>
       <c r="V52" s="8"/>
       <c r="W52" s="7"/>
     </row>
     <row r="53" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E53" s="35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="86"/>
+      <c r="H53" s="80"/>
       <c r="I53" s="44"/>
-      <c r="J53" s="86"/>
+      <c r="J53" s="80"/>
       <c r="K53" s="44"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="94"/>
-      <c r="S53" s="95"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="95"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="89"/>
       <c r="V53" s="8"/>
       <c r="W53" s="7"/>
     </row>
     <row r="54" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E54" s="35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="86"/>
+      <c r="H54" s="80"/>
       <c r="I54" s="44"/>
-      <c r="J54" s="86"/>
+      <c r="J54" s="80"/>
       <c r="K54" s="44"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="95"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="95"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="89"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
     </row>
     <row r="55" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E55" s="35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="86"/>
+      <c r="H55" s="80"/>
       <c r="I55" s="44"/>
-      <c r="J55" s="86"/>
+      <c r="J55" s="80"/>
       <c r="K55" s="44"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="95"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="89"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
     </row>
     <row r="56" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E56" s="35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="86"/>
+      <c r="H56" s="80"/>
       <c r="I56" s="44"/>
-      <c r="J56" s="86"/>
+      <c r="J56" s="80"/>
       <c r="K56" s="44"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="95"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="95"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="89"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E57" s="35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="86"/>
+      <c r="H57" s="80"/>
       <c r="I57" s="44"/>
-      <c r="J57" s="86"/>
+      <c r="J57" s="80"/>
       <c r="K57" s="44"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="95"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="89"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
     </row>
     <row r="58" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E58" s="35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="86"/>
+      <c r="H58" s="80"/>
       <c r="I58" s="44"/>
-      <c r="J58" s="86"/>
+      <c r="J58" s="80"/>
       <c r="K58" s="44"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="95"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="89"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
     </row>
     <row r="59" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E59" s="35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="46"/>
@@ -2978,20 +2954,20 @@
       <c r="K59" s="46"/>
       <c r="L59" s="11"/>
       <c r="M59" s="46"/>
-      <c r="N59" s="79"/>
+      <c r="N59" s="73"/>
       <c r="O59" s="32"/>
-      <c r="P59" s="77"/>
+      <c r="P59" s="71"/>
       <c r="Q59" s="32"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="97"/>
-      <c r="U59" s="96"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="91"/>
+      <c r="U59" s="90"/>
       <c r="V59" s="5"/>
       <c r="W59" s="16"/>
     </row>
     <row r="60" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E60" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="46"/>
@@ -3001,20 +2977,20 @@
       <c r="K60" s="46"/>
       <c r="L60" s="11"/>
       <c r="M60" s="46"/>
-      <c r="N60" s="79"/>
+      <c r="N60" s="73"/>
       <c r="O60" s="32"/>
-      <c r="P60" s="77"/>
+      <c r="P60" s="71"/>
       <c r="Q60" s="32"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="97"/>
-      <c r="U60" s="96"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="90"/>
       <c r="V60" s="5"/>
       <c r="W60" s="16"/>
     </row>
     <row r="61" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E61" s="35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="9"/>
@@ -3024,20 +3000,20 @@
       <c r="K61" s="5"/>
       <c r="L61" s="4"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="75"/>
+      <c r="N61" s="69"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="75"/>
+      <c r="P61" s="69"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="98"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="92"/>
       <c r="T61" s="45"/>
-      <c r="U61" s="98"/>
+      <c r="U61" s="92"/>
       <c r="V61" s="17"/>
       <c r="W61" s="10"/>
     </row>
     <row r="62" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E62" s="35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="9"/>
@@ -3047,20 +3023,20 @@
       <c r="K62" s="5"/>
       <c r="L62" s="4"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="75"/>
+      <c r="N62" s="69"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="75"/>
+      <c r="P62" s="69"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="98"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="92"/>
       <c r="T62" s="45"/>
-      <c r="U62" s="98"/>
+      <c r="U62" s="92"/>
       <c r="V62" s="17"/>
       <c r="W62" s="10"/>
     </row>
     <row r="63" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E63" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="9"/>
@@ -3070,14 +3046,14 @@
       <c r="K63" s="5"/>
       <c r="L63" s="4"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="75"/>
+      <c r="N63" s="69"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="75"/>
+      <c r="P63" s="69"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="83"/>
-      <c r="S63" s="98"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="92"/>
       <c r="T63" s="45"/>
-      <c r="U63" s="98"/>
+      <c r="U63" s="92"/>
       <c r="V63" s="17"/>
       <c r="W63" s="10"/>
     </row>
@@ -3091,43 +3067,43 @@
       <c r="K64" s="5"/>
       <c r="L64" s="4"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="75"/>
+      <c r="N64" s="69"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="75"/>
+      <c r="P64" s="69"/>
       <c r="Q64" s="6"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="98"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="92"/>
       <c r="T64" s="45"/>
-      <c r="U64" s="98"/>
+      <c r="U64" s="92"/>
       <c r="V64" s="17"/>
       <c r="W64" s="10"/>
     </row>
     <row r="65" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E65" s="133" t="s">
+      <c r="E65" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="134"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="135"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="135"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="135"/>
-      <c r="N65" s="136"/>
-      <c r="O65" s="137"/>
-      <c r="P65" s="138"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="136"/>
-      <c r="S65" s="140"/>
-      <c r="T65" s="137"/>
-      <c r="U65" s="140"/>
-      <c r="V65" s="137"/>
-      <c r="W65" s="140"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="121"/>
+      <c r="M65" s="122"/>
+      <c r="N65" s="123"/>
+      <c r="O65" s="124"/>
+      <c r="P65" s="125"/>
+      <c r="Q65" s="126"/>
+      <c r="R65" s="123"/>
+      <c r="S65" s="127"/>
+      <c r="T65" s="124"/>
+      <c r="U65" s="127"/>
+      <c r="V65" s="124"/>
+      <c r="W65" s="127"/>
     </row>
     <row r="66" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E66" s="35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="5"/>
@@ -3137,20 +3113,20 @@
       <c r="K66" s="5"/>
       <c r="L66" s="4"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="74"/>
+      <c r="N66" s="68"/>
       <c r="O66" s="8"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="74"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="68"/>
       <c r="S66" s="7"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="95"/>
+      <c r="T66" s="66"/>
+      <c r="U66" s="89"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
     </row>
     <row r="67" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E67" s="35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="5"/>
@@ -3160,43 +3136,43 @@
       <c r="K67" s="5"/>
       <c r="L67" s="4"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="74"/>
+      <c r="N67" s="68"/>
       <c r="O67" s="8"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="74"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="68"/>
       <c r="S67" s="7"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="95"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="89"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
     </row>
     <row r="68" spans="5:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="E68" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="142"/>
-      <c r="G68" s="143"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="145"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="145"/>
-      <c r="L68" s="144"/>
-      <c r="M68" s="145"/>
-      <c r="N68" s="144"/>
-      <c r="O68" s="145"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="145"/>
-      <c r="R68" s="144"/>
-      <c r="S68" s="146"/>
-      <c r="T68" s="145"/>
-      <c r="U68" s="146"/>
-      <c r="V68" s="145"/>
-      <c r="W68" s="146"/>
+      <c r="E68" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="129"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="131"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="131"/>
+      <c r="O68" s="132"/>
+      <c r="P68" s="131"/>
+      <c r="Q68" s="132"/>
+      <c r="R68" s="131"/>
+      <c r="S68" s="133"/>
+      <c r="T68" s="132"/>
+      <c r="U68" s="133"/>
+      <c r="V68" s="132"/>
+      <c r="W68" s="133"/>
     </row>
     <row r="69" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E69" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="5"/>
@@ -3209,55 +3185,55 @@
       <c r="N69" s="4"/>
       <c r="O69" s="5"/>
       <c r="P69" s="4"/>
-      <c r="Q69" s="59"/>
+      <c r="Q69" s="57"/>
       <c r="R69" s="4"/>
       <c r="S69" s="34"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="100"/>
+      <c r="U69" s="94"/>
       <c r="V69" s="5"/>
       <c r="W69" s="34"/>
     </row>
     <row r="70" spans="5:23" ht="21" x14ac:dyDescent="0.25">
       <c r="E70" s="49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="84"/>
+      <c r="H70" s="78"/>
       <c r="I70" s="51"/>
-      <c r="J70" s="84"/>
+      <c r="J70" s="78"/>
       <c r="K70" s="51"/>
-      <c r="L70" s="84"/>
+      <c r="L70" s="78"/>
       <c r="M70" s="51"/>
-      <c r="N70" s="84"/>
+      <c r="N70" s="78"/>
       <c r="O70" s="51"/>
-      <c r="P70" s="80"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="80"/>
-      <c r="S70" s="64"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="64"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="60"/>
       <c r="V70" s="52"/>
       <c r="W70" s="53"/>
     </row>
     <row r="71" spans="5:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="42"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="110"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="110"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="110"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="110"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="110"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="110"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="66"/>
-      <c r="U71" s="67"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="98"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="98"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="98"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="98"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="63"/>
       <c r="V71" s="19"/>
       <c r="W71" s="20"/>
     </row>
@@ -3280,153 +3256,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:W29"/>
+  <dimension ref="B2:W71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="103.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="38"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="41"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
     </row>
     <row r="7" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1"/>
       <c r="D7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
-      <c r="L7" s="70"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
@@ -3439,68 +3415,68 @@
       <c r="V7" s="31"/>
     </row>
     <row r="8" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="1"/>
       <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="149">
+      <c r="E8" s="136">
         <v>44588</v>
       </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="147">
+      <c r="F8" s="137"/>
+      <c r="G8" s="134">
         <v>44595</v>
       </c>
-      <c r="H8" s="150"/>
-      <c r="I8" s="147">
+      <c r="H8" s="137"/>
+      <c r="I8" s="134">
         <v>44602</v>
       </c>
-      <c r="J8" s="150"/>
-      <c r="K8" s="147">
+      <c r="J8" s="137"/>
+      <c r="K8" s="134">
         <v>44616</v>
       </c>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149">
+      <c r="L8" s="135"/>
+      <c r="M8" s="136">
         <v>44623</v>
       </c>
-      <c r="N8" s="150"/>
-      <c r="O8" s="147">
+      <c r="N8" s="137"/>
+      <c r="O8" s="134">
         <v>44630</v>
       </c>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="147">
+      <c r="P8" s="137"/>
+      <c r="Q8" s="134">
         <v>44637</v>
       </c>
-      <c r="R8" s="148"/>
-      <c r="S8" s="147">
+      <c r="R8" s="135"/>
+      <c r="S8" s="134">
         <v>44644</v>
       </c>
-      <c r="T8" s="148"/>
-      <c r="U8" s="147">
+      <c r="T8" s="135"/>
+      <c r="U8" s="134">
         <v>44651</v>
       </c>
-      <c r="V8" s="148"/>
+      <c r="V8" s="135"/>
       <c r="W8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="1"/>
       <c r="D9" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="73"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="73"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="73"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="67"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="73"/>
+      <c r="O9" s="67"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="73"/>
+      <c r="Q9" s="67"/>
       <c r="R9" s="13"/>
       <c r="S9" s="14"/>
       <c r="T9" s="13"/>
@@ -3509,7 +3485,7 @@
       <c r="W9" s="31"/>
     </row>
     <row r="10" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="1"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
@@ -3519,7 +3495,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="82"/>
+      <c r="L10" s="76"/>
       <c r="M10" s="22"/>
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
@@ -3532,475 +3508,1526 @@
       <c r="V10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="54"/>
+      <c r="D11" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="107"/>
     </row>
     <row r="12" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="1"/>
       <c r="D12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="11"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="57"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="18"/>
     </row>
     <row r="14" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="1"/>
       <c r="D14" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="54"/>
+      <c r="D15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="1"/>
       <c r="D16" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="18"/>
     </row>
     <row r="17" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="1"/>
       <c r="D17" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="54"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="46"/>
+      <c r="D18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="11"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="54"/>
       <c r="S18" s="46"/>
       <c r="T18" s="54"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="54"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="46"/>
+      <c r="D19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="11"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="54"/>
       <c r="S19" s="46"/>
       <c r="T19" s="54"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="54"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="18"/>
     </row>
     <row r="20" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="1"/>
       <c r="D20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="64"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="57"/>
-    </row>
-    <row r="21" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="54"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="113"/>
     </row>
     <row r="22" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="1"/>
       <c r="D22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="54"/>
+        <v>16</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="1"/>
       <c r="D23" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="54"/>
+      <c r="D24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="1"/>
       <c r="D25" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="61"/>
+        <v>32</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="1"/>
       <c r="D26" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="54"/>
+        <v>33</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="2:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="119"/>
+    </row>
+    <row r="33" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="7"/>
+    </row>
+    <row r="34" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="7"/>
+    </row>
+    <row r="36" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="7"/>
+    </row>
+    <row r="37" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="7"/>
+    </row>
+    <row r="38" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="7"/>
+    </row>
+    <row r="39" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="7"/>
+    </row>
+    <row r="41" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="7"/>
+    </row>
+    <row r="42" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="7"/>
+    </row>
+    <row r="43" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="7"/>
+    </row>
+    <row r="44" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="7"/>
+    </row>
+    <row r="45" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="7"/>
+    </row>
+    <row r="46" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="7"/>
+    </row>
+    <row r="47" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="7"/>
+    </row>
+    <row r="48" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="7"/>
+    </row>
+    <row r="49" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="7"/>
+    </row>
+    <row r="50" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="7"/>
+    </row>
+    <row r="51" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="7"/>
+    </row>
+    <row r="52" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="7"/>
+    </row>
+    <row r="53" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="7"/>
+    </row>
+    <row r="54" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="7"/>
+    </row>
+    <row r="55" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="7"/>
+    </row>
+    <row r="56" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="95"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="7"/>
+    </row>
+    <row r="57" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="7"/>
+    </row>
+    <row r="58" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="7"/>
+    </row>
+    <row r="59" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="16"/>
+    </row>
+    <row r="60" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="16"/>
+    </row>
+    <row r="61" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="64"/>
-    </row>
-    <row r="28" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="67"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="10"/>
+    </row>
+    <row r="62" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="10"/>
+    </row>
+    <row r="63" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="10"/>
+    </row>
+    <row r="64" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="10"/>
+    </row>
+    <row r="65" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="121"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="121"/>
+      <c r="L65" s="122"/>
+      <c r="M65" s="123"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="126"/>
+      <c r="Q65" s="123"/>
+      <c r="R65" s="127"/>
+      <c r="S65" s="124"/>
+      <c r="T65" s="127"/>
+      <c r="U65" s="124"/>
+      <c r="V65" s="127"/>
+    </row>
+    <row r="66" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="7"/>
+    </row>
+    <row r="68" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="129"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="131"/>
+      <c r="P68" s="132"/>
+      <c r="Q68" s="131"/>
+      <c r="R68" s="133"/>
+      <c r="S68" s="132"/>
+      <c r="T68" s="133"/>
+      <c r="U68" s="132"/>
+      <c r="V68" s="133"/>
+    </row>
+    <row r="69" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="58"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="58"/>
+    </row>
+    <row r="70" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="50"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="59"/>
+      <c r="V70" s="60"/>
+    </row>
+    <row r="71" spans="2:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="98"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="98"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="98"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="98"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="98"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="63"/>
+      <c r="U71" s="62"/>
+      <c r="V71" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\ATProgrammationSmartphone\2eme_Semestre\GameAdvice\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D7FA4A-2079-47AF-B3FF-1E571DB1C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFABB3E-21ED-4403-BF72-D6690EEEEADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -1321,6 +1321,12 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,12 +1337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:W71"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,42 +1694,42 @@
       <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="138">
         <v>44588</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="134">
+      <c r="G8" s="139"/>
+      <c r="H8" s="136">
         <v>44595</v>
       </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="134">
+      <c r="I8" s="139"/>
+      <c r="J8" s="136">
         <v>44602</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="134">
+      <c r="K8" s="139"/>
+      <c r="L8" s="136">
         <v>44616</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="136">
+      <c r="M8" s="137"/>
+      <c r="N8" s="138">
         <v>44623</v>
       </c>
-      <c r="O8" s="137"/>
-      <c r="P8" s="134">
+      <c r="O8" s="139"/>
+      <c r="P8" s="136">
         <v>44630</v>
       </c>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="134">
+      <c r="Q8" s="139"/>
+      <c r="R8" s="136">
         <v>44637</v>
       </c>
-      <c r="S8" s="135"/>
-      <c r="T8" s="134">
+      <c r="S8" s="137"/>
+      <c r="T8" s="136">
         <v>44644</v>
       </c>
-      <c r="U8" s="135"/>
-      <c r="V8" s="134">
+      <c r="U8" s="137"/>
+      <c r="V8" s="136">
         <v>44651</v>
       </c>
-      <c r="W8" s="135"/>
+      <c r="W8" s="137"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="1"/>
@@ -3258,7 +3258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -3420,42 +3420,42 @@
       <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="136">
+      <c r="E8" s="138">
         <v>44588</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="134">
+      <c r="F8" s="139"/>
+      <c r="G8" s="136">
         <v>44595</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="134">
+      <c r="H8" s="139"/>
+      <c r="I8" s="136">
         <v>44602</v>
       </c>
-      <c r="J8" s="137"/>
-      <c r="K8" s="134">
+      <c r="J8" s="139"/>
+      <c r="K8" s="136">
         <v>44616</v>
       </c>
-      <c r="L8" s="135"/>
-      <c r="M8" s="136">
+      <c r="L8" s="137"/>
+      <c r="M8" s="138">
         <v>44623</v>
       </c>
-      <c r="N8" s="137"/>
-      <c r="O8" s="134">
+      <c r="N8" s="139"/>
+      <c r="O8" s="136">
         <v>44630</v>
       </c>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="134">
+      <c r="P8" s="139"/>
+      <c r="Q8" s="136">
         <v>44637</v>
       </c>
-      <c r="R8" s="135"/>
-      <c r="S8" s="134">
+      <c r="R8" s="137"/>
+      <c r="S8" s="136">
         <v>44644</v>
       </c>
-      <c r="T8" s="135"/>
-      <c r="U8" s="134">
+      <c r="T8" s="137"/>
+      <c r="U8" s="136">
         <v>44651</v>
       </c>
-      <c r="V8" s="135"/>
+      <c r="V8" s="137"/>
       <c r="W8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="21" x14ac:dyDescent="0.25">
@@ -4022,8 +4022,8 @@
       <c r="J31" s="48"/>
       <c r="K31" s="81"/>
       <c r="L31" s="48"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="139"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="135"/>
       <c r="O31" s="69"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="69"/>

--- a/planning/Planification.xlsx
+++ b/planning/Planification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\var\www\html\GameAdvice\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFABB3E-21ED-4403-BF72-D6690EEEEADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ED48C-71E0-4DDC-B687-8D69A3991D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -3258,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,9 +4076,9 @@
       <c r="N33" s="65"/>
       <c r="O33" s="96"/>
       <c r="P33" s="57"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="55"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
       <c r="T33" s="56"/>
       <c r="U33" s="8"/>
       <c r="V33" s="7"/>
@@ -4101,9 +4101,9 @@
       <c r="N34" s="65"/>
       <c r="O34" s="96"/>
       <c r="P34" s="57"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="55"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
       <c r="T34" s="56"/>
       <c r="U34" s="8"/>
       <c r="V34" s="7"/>
@@ -4126,9 +4126,9 @@
       <c r="N35" s="65"/>
       <c r="O35" s="96"/>
       <c r="P35" s="57"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="55"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
       <c r="T35" s="56"/>
       <c r="U35" s="8"/>
       <c r="V35" s="7"/>
@@ -4151,9 +4151,9 @@
       <c r="N36" s="65"/>
       <c r="O36" s="96"/>
       <c r="P36" s="57"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="55"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
       <c r="T36" s="56"/>
       <c r="U36" s="8"/>
       <c r="V36" s="7"/>
@@ -4176,9 +4176,9 @@
       <c r="N37" s="65"/>
       <c r="O37" s="96"/>
       <c r="P37" s="57"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="55"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
       <c r="T37" s="56"/>
       <c r="U37" s="8"/>
       <c r="V37" s="7"/>
@@ -4201,9 +4201,9 @@
       <c r="N38" s="65"/>
       <c r="O38" s="96"/>
       <c r="P38" s="57"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="55"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
       <c r="T38" s="56"/>
       <c r="U38" s="8"/>
       <c r="V38" s="7"/>
@@ -4226,9 +4226,9 @@
       <c r="N39" s="65"/>
       <c r="O39" s="96"/>
       <c r="P39" s="57"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="55"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
       <c r="T39" s="56"/>
       <c r="U39" s="8"/>
       <c r="V39" s="7"/>
@@ -4251,9 +4251,9 @@
       <c r="N40" s="65"/>
       <c r="O40" s="96"/>
       <c r="P40" s="57"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="55"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
       <c r="T40" s="56"/>
       <c r="U40" s="8"/>
       <c r="V40" s="7"/>
@@ -4276,9 +4276,9 @@
       <c r="N41" s="65"/>
       <c r="O41" s="96"/>
       <c r="P41" s="57"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="55"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
       <c r="T41" s="56"/>
       <c r="U41" s="8"/>
       <c r="V41" s="7"/>
@@ -4301,9 +4301,9 @@
       <c r="N42" s="65"/>
       <c r="O42" s="96"/>
       <c r="P42" s="57"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="55"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
       <c r="T42" s="56"/>
       <c r="U42" s="8"/>
       <c r="V42" s="7"/>
@@ -4326,9 +4326,9 @@
       <c r="N43" s="65"/>
       <c r="O43" s="96"/>
       <c r="P43" s="57"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="55"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
       <c r="T43" s="56"/>
       <c r="U43" s="8"/>
       <c r="V43" s="7"/>
@@ -4351,9 +4351,9 @@
       <c r="N44" s="65"/>
       <c r="O44" s="96"/>
       <c r="P44" s="57"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="55"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
       <c r="T44" s="56"/>
       <c r="U44" s="8"/>
       <c r="V44" s="7"/>
@@ -4376,9 +4376,9 @@
       <c r="N45" s="65"/>
       <c r="O45" s="96"/>
       <c r="P45" s="57"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="55"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
       <c r="T45" s="56"/>
       <c r="U45" s="8"/>
       <c r="V45" s="7"/>
@@ -4401,9 +4401,9 @@
       <c r="N46" s="65"/>
       <c r="O46" s="96"/>
       <c r="P46" s="57"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="55"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
       <c r="T46" s="56"/>
       <c r="U46" s="8"/>
       <c r="V46" s="7"/>
@@ -4426,9 +4426,9 @@
       <c r="N47" s="65"/>
       <c r="O47" s="96"/>
       <c r="P47" s="57"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="55"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
       <c r="T47" s="56"/>
       <c r="U47" s="8"/>
       <c r="V47" s="7"/>
@@ -4451,9 +4451,9 @@
       <c r="N48" s="65"/>
       <c r="O48" s="96"/>
       <c r="P48" s="57"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="55"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
       <c r="T48" s="56"/>
       <c r="U48" s="8"/>
       <c r="V48" s="7"/>
@@ -4476,9 +4476,9 @@
       <c r="N49" s="65"/>
       <c r="O49" s="96"/>
       <c r="P49" s="57"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="55"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="65"/>
+      <c r="S49" s="65"/>
       <c r="T49" s="56"/>
       <c r="U49" s="8"/>
       <c r="V49" s="7"/>
@@ -4501,9 +4501,9 @@
       <c r="N50" s="65"/>
       <c r="O50" s="96"/>
       <c r="P50" s="57"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="55"/>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="65"/>
+      <c r="S50" s="65"/>
       <c r="T50" s="56"/>
       <c r="U50" s="8"/>
       <c r="V50" s="7"/>
@@ -4526,9 +4526,9 @@
       <c r="N51" s="65"/>
       <c r="O51" s="96"/>
       <c r="P51" s="57"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="55"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
       <c r="T51" s="56"/>
       <c r="U51" s="8"/>
       <c r="V51" s="7"/>
@@ -4551,9 +4551,9 @@
       <c r="N52" s="65"/>
       <c r="O52" s="96"/>
       <c r="P52" s="57"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="55"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
       <c r="T52" s="56"/>
       <c r="U52" s="8"/>
       <c r="V52" s="7"/>
@@ -4576,9 +4576,9 @@
       <c r="N53" s="65"/>
       <c r="O53" s="96"/>
       <c r="P53" s="57"/>
-      <c r="Q53" s="95"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="55"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
       <c r="T53" s="56"/>
       <c r="U53" s="8"/>
       <c r="V53" s="7"/>
@@ -4601,9 +4601,9 @@
       <c r="N54" s="65"/>
       <c r="O54" s="96"/>
       <c r="P54" s="57"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="55"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
       <c r="T54" s="56"/>
       <c r="U54" s="8"/>
       <c r="V54" s="7"/>
@@ -4626,9 +4626,9 @@
       <c r="N55" s="65"/>
       <c r="O55" s="96"/>
       <c r="P55" s="57"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="55"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
       <c r="T55" s="56"/>
       <c r="U55" s="8"/>
       <c r="V55" s="7"/>
@@ -4651,9 +4651,9 @@
       <c r="N56" s="65"/>
       <c r="O56" s="96"/>
       <c r="P56" s="57"/>
-      <c r="Q56" s="95"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="55"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
       <c r="T56" s="56"/>
       <c r="U56" s="8"/>
       <c r="V56" s="7"/>
@@ -4676,9 +4676,9 @@
       <c r="N57" s="65"/>
       <c r="O57" s="96"/>
       <c r="P57" s="57"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="55"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
       <c r="T57" s="56"/>
       <c r="U57" s="8"/>
       <c r="V57" s="7"/>
@@ -4701,9 +4701,9 @@
       <c r="N58" s="65"/>
       <c r="O58" s="96"/>
       <c r="P58" s="57"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="55"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
       <c r="T58" s="56"/>
       <c r="U58" s="8"/>
       <c r="V58" s="7"/>
@@ -4726,9 +4726,9 @@
       <c r="N59" s="32"/>
       <c r="O59" s="95"/>
       <c r="P59" s="46"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="46"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
       <c r="T59" s="54"/>
       <c r="U59" s="5"/>
       <c r="V59" s="16"/>
@@ -4751,9 +4751,9 @@
       <c r="N60" s="32"/>
       <c r="O60" s="95"/>
       <c r="P60" s="46"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="46"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
       <c r="T60" s="54"/>
       <c r="U60" s="5"/>
       <c r="V60" s="16"/>
@@ -4901,7 +4901,6 @@
       <c r="P66" s="55"/>
       <c r="Q66" s="68"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="55"/>
       <c r="T66" s="56"/>
       <c r="U66" s="8"/>
       <c r="V66" s="7"/>
@@ -4976,8 +4975,8 @@
       <c r="P69" s="57"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="34"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="58"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="65"/>
       <c r="U69" s="46"/>
       <c r="V69" s="58"/>
     </row>
@@ -5001,8 +5000,8 @@
       <c r="P70" s="59"/>
       <c r="Q70" s="74"/>
       <c r="R70" s="60"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="60"/>
+      <c r="S70" s="70"/>
+      <c r="T70" s="65"/>
       <c r="U70" s="59"/>
       <c r="V70" s="60"/>
     </row>
